--- a/pred_ohlcv/54/2019-11-01 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-01 IOST ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H331"/>
+  <dimension ref="A1:I311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8.07</v>
+        <v>8.06</v>
       </c>
       <c r="C2" t="n">
-        <v>8.07</v>
+        <v>8.06</v>
       </c>
       <c r="D2" t="n">
-        <v>8.07</v>
+        <v>8.06</v>
       </c>
       <c r="E2" t="n">
-        <v>8.07</v>
+        <v>8.06</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G2" t="n">
-        <v>7.991500000000006</v>
+        <v>7.984666666666673</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8.06</v>
+        <v>8.07</v>
       </c>
       <c r="C3" t="n">
-        <v>8.08</v>
+        <v>8.07</v>
       </c>
       <c r="D3" t="n">
-        <v>8.08</v>
+        <v>8.07</v>
       </c>
       <c r="E3" t="n">
-        <v>8.06</v>
+        <v>8.07</v>
       </c>
       <c r="F3" t="n">
-        <v>1164.7594</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>7.998666666666673</v>
+        <v>7.991500000000006</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8.09</v>
+        <v>8.06</v>
       </c>
       <c r="C4" t="n">
-        <v>8.1</v>
+        <v>8.08</v>
       </c>
       <c r="D4" t="n">
-        <v>8.1</v>
+        <v>8.08</v>
       </c>
       <c r="E4" t="n">
-        <v>8.09</v>
+        <v>8.06</v>
       </c>
       <c r="F4" t="n">
-        <v>43327.6603</v>
+        <v>1164.7594</v>
       </c>
       <c r="G4" t="n">
-        <v>8.004500000000005</v>
+        <v>7.998666666666673</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -489,21 +503,24 @@
         <v>8.09</v>
       </c>
       <c r="C5" t="n">
-        <v>8.09</v>
+        <v>8.1</v>
       </c>
       <c r="D5" t="n">
-        <v>8.09</v>
+        <v>8.1</v>
       </c>
       <c r="E5" t="n">
         <v>8.09</v>
       </c>
       <c r="F5" t="n">
-        <v>317.6826</v>
+        <v>43327.6603</v>
       </c>
       <c r="G5" t="n">
-        <v>8.009333333333339</v>
+        <v>8.004500000000005</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -524,12 +541,15 @@
         <v>8.09</v>
       </c>
       <c r="F6" t="n">
-        <v>143.8414</v>
+        <v>317.6826</v>
       </c>
       <c r="G6" t="n">
-        <v>8.014833333333339</v>
+        <v>8.009333333333339</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.109999999999999</v>
+        <v>8.09</v>
       </c>
       <c r="C7" t="n">
-        <v>8.109999999999999</v>
+        <v>8.09</v>
       </c>
       <c r="D7" t="n">
-        <v>8.109999999999999</v>
+        <v>8.09</v>
       </c>
       <c r="E7" t="n">
-        <v>8.109999999999999</v>
+        <v>8.09</v>
       </c>
       <c r="F7" t="n">
-        <v>302.6826</v>
+        <v>143.8414</v>
       </c>
       <c r="G7" t="n">
-        <v>8.020000000000005</v>
+        <v>8.014833333333339</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -567,21 +590,24 @@
         <v>8.109999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>8.08</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>8.119999999999999</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>8.08</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>166761.9838</v>
+        <v>302.6826</v>
       </c>
       <c r="G8" t="n">
-        <v>8.025333333333339</v>
+        <v>8.020000000000005</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8.1</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="C9" t="n">
         <v>8.08</v>
       </c>
       <c r="D9" t="n">
-        <v>8.1</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="E9" t="n">
         <v>8.08</v>
       </c>
       <c r="F9" t="n">
-        <v>1960.6614</v>
+        <v>166761.9838</v>
       </c>
       <c r="G9" t="n">
-        <v>8.030833333333339</v>
+        <v>8.025333333333339</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -619,21 +648,24 @@
         <v>8.1</v>
       </c>
       <c r="C10" t="n">
-        <v>8.1</v>
+        <v>8.08</v>
       </c>
       <c r="D10" t="n">
         <v>8.1</v>
       </c>
       <c r="E10" t="n">
-        <v>8.1</v>
+        <v>8.08</v>
       </c>
       <c r="F10" t="n">
-        <v>1819</v>
+        <v>1960.6614</v>
       </c>
       <c r="G10" t="n">
-        <v>8.036666666666672</v>
+        <v>8.030833333333339</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8.09</v>
+        <v>8.1</v>
       </c>
       <c r="C11" t="n">
-        <v>8.07</v>
+        <v>8.1</v>
       </c>
       <c r="D11" t="n">
-        <v>8.09</v>
+        <v>8.1</v>
       </c>
       <c r="E11" t="n">
-        <v>8.07</v>
+        <v>8.1</v>
       </c>
       <c r="F11" t="n">
-        <v>30</v>
+        <v>1819</v>
       </c>
       <c r="G11" t="n">
-        <v>8.042000000000005</v>
+        <v>8.036666666666672</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8.06</v>
+        <v>8.09</v>
       </c>
       <c r="C12" t="n">
-        <v>8.06</v>
+        <v>8.07</v>
       </c>
       <c r="D12" t="n">
-        <v>8.06</v>
+        <v>8.09</v>
       </c>
       <c r="E12" t="n">
-        <v>8.06</v>
+        <v>8.07</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G12" t="n">
-        <v>8.048333333333339</v>
+        <v>8.042000000000005</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8.09</v>
+        <v>8.06</v>
       </c>
       <c r="C13" t="n">
-        <v>8.09</v>
+        <v>8.06</v>
       </c>
       <c r="D13" t="n">
-        <v>8.09</v>
+        <v>8.06</v>
       </c>
       <c r="E13" t="n">
-        <v>8.09</v>
+        <v>8.06</v>
       </c>
       <c r="F13" t="n">
-        <v>682.2859999999999</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>8.055166666666672</v>
+        <v>8.048333333333339</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -723,21 +764,24 @@
         <v>8.09</v>
       </c>
       <c r="C14" t="n">
-        <v>8.07</v>
+        <v>8.09</v>
       </c>
       <c r="D14" t="n">
         <v>8.09</v>
       </c>
       <c r="E14" t="n">
-        <v>8.07</v>
+        <v>8.09</v>
       </c>
       <c r="F14" t="n">
-        <v>857.6299</v>
+        <v>682.2859999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>8.059000000000005</v>
+        <v>8.055166666666672</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8.06</v>
+        <v>8.09</v>
       </c>
       <c r="C15" t="n">
-        <v>8.06</v>
+        <v>8.07</v>
       </c>
       <c r="D15" t="n">
-        <v>8.06</v>
+        <v>8.09</v>
       </c>
       <c r="E15" t="n">
-        <v>8.06</v>
+        <v>8.07</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>857.6299</v>
       </c>
       <c r="G15" t="n">
-        <v>8.064333333333339</v>
+        <v>8.059000000000005</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8.050000000000001</v>
+        <v>8.06</v>
       </c>
       <c r="C16" t="n">
-        <v>7.99</v>
+        <v>8.06</v>
       </c>
       <c r="D16" t="n">
-        <v>8.050000000000001</v>
+        <v>8.06</v>
       </c>
       <c r="E16" t="n">
-        <v>7.99</v>
+        <v>8.06</v>
       </c>
       <c r="F16" t="n">
-        <v>3153.068</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>8.068833333333338</v>
+        <v>8.064333333333339</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7.98</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>7.98</v>
+        <v>7.99</v>
       </c>
       <c r="D17" t="n">
-        <v>7.98</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>7.98</v>
+        <v>7.99</v>
       </c>
       <c r="F17" t="n">
-        <v>873.6165</v>
+        <v>3153.068</v>
       </c>
       <c r="G17" t="n">
-        <v>8.072000000000005</v>
+        <v>8.068833333333338</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8.050000000000001</v>
+        <v>7.98</v>
       </c>
       <c r="C18" t="n">
-        <v>8.050000000000001</v>
+        <v>7.98</v>
       </c>
       <c r="D18" t="n">
-        <v>8.050000000000001</v>
+        <v>7.98</v>
       </c>
       <c r="E18" t="n">
-        <v>8.050000000000001</v>
+        <v>7.98</v>
       </c>
       <c r="F18" t="n">
-        <v>232.6708</v>
+        <v>873.6165</v>
       </c>
       <c r="G18" t="n">
-        <v>8.075833333333339</v>
+        <v>8.072000000000005</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7.98</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>7.98</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>7.98</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>7.98</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>1075.4593</v>
+        <v>232.6708</v>
       </c>
       <c r="G19" t="n">
-        <v>8.078500000000005</v>
+        <v>8.075833333333339</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8.01</v>
+        <v>7.98</v>
       </c>
       <c r="C20" t="n">
-        <v>8.029999999999999</v>
+        <v>7.98</v>
       </c>
       <c r="D20" t="n">
-        <v>8.029999999999999</v>
+        <v>7.98</v>
       </c>
       <c r="E20" t="n">
-        <v>8.01</v>
+        <v>7.98</v>
       </c>
       <c r="F20" t="n">
-        <v>74963.5505</v>
+        <v>1075.4593</v>
       </c>
       <c r="G20" t="n">
-        <v>8.081500000000004</v>
+        <v>8.078500000000005</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7.98</v>
+        <v>8.01</v>
       </c>
       <c r="C21" t="n">
-        <v>7.98</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>7.98</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>7.98</v>
+        <v>8.01</v>
       </c>
       <c r="F21" t="n">
-        <v>943.4536000000001</v>
+        <v>74963.5505</v>
       </c>
       <c r="G21" t="n">
-        <v>8.083500000000004</v>
+        <v>8.081500000000004</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>7.99</v>
+        <v>7.98</v>
       </c>
       <c r="C22" t="n">
-        <v>7.97</v>
+        <v>7.98</v>
       </c>
       <c r="D22" t="n">
-        <v>7.99</v>
+        <v>7.98</v>
       </c>
       <c r="E22" t="n">
-        <v>7.97</v>
+        <v>7.98</v>
       </c>
       <c r="F22" t="n">
-        <v>85415.12149999999</v>
+        <v>943.4536000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>8.085333333333338</v>
+        <v>8.083500000000004</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>7.96</v>
+        <v>7.99</v>
       </c>
       <c r="C23" t="n">
-        <v>7.96</v>
+        <v>7.97</v>
       </c>
       <c r="D23" t="n">
-        <v>7.96</v>
+        <v>7.99</v>
       </c>
       <c r="E23" t="n">
-        <v>7.96</v>
+        <v>7.97</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>85415.12149999999</v>
       </c>
       <c r="G23" t="n">
-        <v>8.086833333333338</v>
+        <v>8.085333333333338</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>7.95</v>
+        <v>7.96</v>
       </c>
       <c r="C24" t="n">
-        <v>7.95</v>
+        <v>7.96</v>
       </c>
       <c r="D24" t="n">
-        <v>7.95</v>
+        <v>7.96</v>
       </c>
       <c r="E24" t="n">
-        <v>7.95</v>
+        <v>7.96</v>
       </c>
       <c r="F24" t="n">
         <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>8.086166666666671</v>
+        <v>8.086833333333338</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>7.94</v>
+        <v>7.95</v>
       </c>
       <c r="C25" t="n">
-        <v>7.94</v>
+        <v>7.95</v>
       </c>
       <c r="D25" t="n">
-        <v>7.94</v>
+        <v>7.95</v>
       </c>
       <c r="E25" t="n">
-        <v>7.94</v>
+        <v>7.95</v>
       </c>
       <c r="F25" t="n">
         <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>8.08566666666667</v>
+        <v>8.086166666666671</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>7.93</v>
+        <v>7.94</v>
       </c>
       <c r="C26" t="n">
-        <v>7.72</v>
+        <v>7.94</v>
       </c>
       <c r="D26" t="n">
-        <v>7.93</v>
+        <v>7.94</v>
       </c>
       <c r="E26" t="n">
-        <v>7.72</v>
+        <v>7.94</v>
       </c>
       <c r="F26" t="n">
-        <v>15505.8183</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>8.081500000000004</v>
+        <v>8.08566666666667</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>7.96</v>
+        <v>7.93</v>
       </c>
       <c r="C27" t="n">
-        <v>7.96</v>
+        <v>7.72</v>
       </c>
       <c r="D27" t="n">
-        <v>7.96</v>
+        <v>7.93</v>
       </c>
       <c r="E27" t="n">
-        <v>7.96</v>
+        <v>7.72</v>
       </c>
       <c r="F27" t="n">
-        <v>11</v>
+        <v>15505.8183</v>
       </c>
       <c r="G27" t="n">
-        <v>8.08116666666667</v>
+        <v>8.081500000000004</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1087,21 +1170,24 @@
         <v>7.96</v>
       </c>
       <c r="C28" t="n">
-        <v>7.98</v>
+        <v>7.96</v>
       </c>
       <c r="D28" t="n">
-        <v>7.98</v>
+        <v>7.96</v>
       </c>
       <c r="E28" t="n">
         <v>7.96</v>
       </c>
       <c r="F28" t="n">
-        <v>14523.3873</v>
+        <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>8.080166666666669</v>
+        <v>8.08116666666667</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>8</v>
+        <v>7.96</v>
       </c>
       <c r="C29" t="n">
-        <v>8</v>
+        <v>7.98</v>
       </c>
       <c r="D29" t="n">
-        <v>8</v>
+        <v>7.98</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>7.96</v>
       </c>
       <c r="F29" t="n">
-        <v>255.3681</v>
+        <v>14523.3873</v>
       </c>
       <c r="G29" t="n">
-        <v>8.077333333333335</v>
+        <v>8.080166666666669</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1148,12 +1237,15 @@
         <v>8</v>
       </c>
       <c r="F30" t="n">
-        <v>7910</v>
+        <v>255.3681</v>
       </c>
       <c r="G30" t="n">
-        <v>8.073166666666669</v>
+        <v>8.077333333333335</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1174,12 +1266,15 @@
         <v>8</v>
       </c>
       <c r="F31" t="n">
-        <v>5071.4502</v>
+        <v>7910</v>
       </c>
       <c r="G31" t="n">
-        <v>8.070000000000002</v>
+        <v>8.073166666666669</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>7.89</v>
+        <v>8</v>
       </c>
       <c r="C32" t="n">
-        <v>7.89</v>
+        <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>7.89</v>
+        <v>8</v>
       </c>
       <c r="E32" t="n">
-        <v>7.89</v>
+        <v>8</v>
       </c>
       <c r="F32" t="n">
-        <v>124524.6806</v>
+        <v>5071.4502</v>
       </c>
       <c r="G32" t="n">
-        <v>8.065333333333335</v>
+        <v>8.070000000000002</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>7.82</v>
+        <v>7.89</v>
       </c>
       <c r="C33" t="n">
-        <v>7.81</v>
+        <v>7.89</v>
       </c>
       <c r="D33" t="n">
-        <v>7.82</v>
+        <v>7.89</v>
       </c>
       <c r="E33" t="n">
-        <v>7.81</v>
+        <v>7.89</v>
       </c>
       <c r="F33" t="n">
-        <v>316864.9355</v>
+        <v>124524.6806</v>
       </c>
       <c r="G33" t="n">
-        <v>8.059500000000002</v>
+        <v>8.065333333333335</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>8.050000000000001</v>
+        <v>7.82</v>
       </c>
       <c r="C34" t="n">
-        <v>8.06</v>
+        <v>7.81</v>
       </c>
       <c r="D34" t="n">
-        <v>8.06</v>
+        <v>7.82</v>
       </c>
       <c r="E34" t="n">
-        <v>8.050000000000001</v>
+        <v>7.81</v>
       </c>
       <c r="F34" t="n">
-        <v>7090</v>
+        <v>316864.9355</v>
       </c>
       <c r="G34" t="n">
-        <v>8.058166666666668</v>
+        <v>8.059500000000002</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1278,12 +1382,15 @@
         <v>8.050000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>23140</v>
+        <v>7090</v>
       </c>
       <c r="G35" t="n">
-        <v>8.056166666666668</v>
+        <v>8.058166666666668</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="C36" t="n">
         <v>8.06</v>
-      </c>
-      <c r="C36" t="n">
-        <v>7.98</v>
       </c>
       <c r="D36" t="n">
         <v>8.06</v>
       </c>
       <c r="E36" t="n">
-        <v>7.98</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>42788.3202</v>
+        <v>23140</v>
       </c>
       <c r="G36" t="n">
-        <v>8.053000000000003</v>
+        <v>8.056166666666668</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>7.99</v>
+        <v>8.06</v>
       </c>
       <c r="C37" t="n">
         <v>7.98</v>
       </c>
       <c r="D37" t="n">
-        <v>7.99</v>
+        <v>8.06</v>
       </c>
       <c r="E37" t="n">
         <v>7.98</v>
       </c>
       <c r="F37" t="n">
-        <v>19809.9083</v>
+        <v>42788.3202</v>
       </c>
       <c r="G37" t="n">
-        <v>8.049500000000002</v>
+        <v>8.053000000000003</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>7.81</v>
+        <v>7.99</v>
       </c>
       <c r="C38" t="n">
-        <v>7.8</v>
+        <v>7.98</v>
       </c>
       <c r="D38" t="n">
-        <v>7.81</v>
+        <v>7.99</v>
       </c>
       <c r="E38" t="n">
-        <v>7.8</v>
+        <v>7.98</v>
       </c>
       <c r="F38" t="n">
-        <v>115325.6981</v>
+        <v>19809.9083</v>
       </c>
       <c r="G38" t="n">
-        <v>8.046000000000003</v>
+        <v>8.049500000000002</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>7.98</v>
+        <v>7.81</v>
       </c>
       <c r="C39" t="n">
-        <v>7.99</v>
+        <v>7.8</v>
       </c>
       <c r="D39" t="n">
-        <v>7.99</v>
+        <v>7.81</v>
       </c>
       <c r="E39" t="n">
-        <v>7.98</v>
+        <v>7.8</v>
       </c>
       <c r="F39" t="n">
-        <v>7170</v>
+        <v>115325.6981</v>
       </c>
       <c r="G39" t="n">
-        <v>8.043000000000003</v>
+        <v>8.046000000000003</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,7 +1515,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>7.99</v>
+        <v>7.98</v>
       </c>
       <c r="C40" t="n">
         <v>7.99</v>
@@ -1405,15 +1524,18 @@
         <v>7.99</v>
       </c>
       <c r="E40" t="n">
-        <v>7.99</v>
+        <v>7.98</v>
       </c>
       <c r="F40" t="n">
-        <v>15.8551</v>
+        <v>7170</v>
       </c>
       <c r="G40" t="n">
-        <v>8.040000000000003</v>
+        <v>8.043000000000003</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>8</v>
+        <v>7.99</v>
       </c>
       <c r="C41" t="n">
         <v>7.99</v>
       </c>
       <c r="D41" t="n">
-        <v>8</v>
+        <v>7.99</v>
       </c>
       <c r="E41" t="n">
         <v>7.99</v>
       </c>
       <c r="F41" t="n">
-        <v>48870</v>
+        <v>15.8551</v>
       </c>
       <c r="G41" t="n">
-        <v>8.036666666666669</v>
+        <v>8.040000000000003</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>7.97</v>
+        <v>8</v>
       </c>
       <c r="C42" t="n">
-        <v>8</v>
+        <v>7.99</v>
       </c>
       <c r="D42" t="n">
         <v>8</v>
       </c>
       <c r="E42" t="n">
-        <v>7.97</v>
+        <v>7.99</v>
       </c>
       <c r="F42" t="n">
-        <v>94980</v>
+        <v>48870</v>
       </c>
       <c r="G42" t="n">
-        <v>8.033666666666669</v>
+        <v>8.036666666666669</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>7.96</v>
+        <v>7.97</v>
       </c>
       <c r="C43" t="n">
-        <v>7.96</v>
+        <v>8</v>
       </c>
       <c r="D43" t="n">
-        <v>7.96</v>
+        <v>8</v>
       </c>
       <c r="E43" t="n">
-        <v>7.96</v>
+        <v>7.97</v>
       </c>
       <c r="F43" t="n">
-        <v>49103.5006</v>
+        <v>94980</v>
       </c>
       <c r="G43" t="n">
-        <v>8.030166666666668</v>
+        <v>8.033666666666669</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1512,12 +1643,15 @@
         <v>7.96</v>
       </c>
       <c r="F44" t="n">
-        <v>26.4994</v>
+        <v>49103.5006</v>
       </c>
       <c r="G44" t="n">
-        <v>8.026333333333335</v>
+        <v>8.030166666666668</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1538,12 +1672,15 @@
         <v>7.96</v>
       </c>
       <c r="F45" t="n">
-        <v>275.385</v>
+        <v>26.4994</v>
       </c>
       <c r="G45" t="n">
-        <v>8.022833333333335</v>
+        <v>8.026333333333335</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>7.87</v>
+        <v>7.96</v>
       </c>
       <c r="C46" t="n">
-        <v>7.88</v>
+        <v>7.96</v>
       </c>
       <c r="D46" t="n">
-        <v>7.88</v>
+        <v>7.96</v>
       </c>
       <c r="E46" t="n">
-        <v>7.87</v>
+        <v>7.96</v>
       </c>
       <c r="F46" t="n">
-        <v>73767.62450000001</v>
+        <v>275.385</v>
       </c>
       <c r="G46" t="n">
-        <v>8.018000000000001</v>
+        <v>8.022833333333335</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>7.89</v>
+        <v>7.87</v>
       </c>
       <c r="C47" t="n">
-        <v>7.89</v>
+        <v>7.88</v>
       </c>
       <c r="D47" t="n">
-        <v>7.89</v>
+        <v>7.88</v>
       </c>
       <c r="E47" t="n">
-        <v>7.89</v>
+        <v>7.87</v>
       </c>
       <c r="F47" t="n">
-        <v>5291.7116</v>
+        <v>73767.62450000001</v>
       </c>
       <c r="G47" t="n">
-        <v>8.014000000000001</v>
+        <v>8.018000000000001</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>7.9</v>
+        <v>7.89</v>
       </c>
       <c r="C48" t="n">
-        <v>7.9</v>
+        <v>7.89</v>
       </c>
       <c r="D48" t="n">
-        <v>7.9</v>
+        <v>7.89</v>
       </c>
       <c r="E48" t="n">
-        <v>7.9</v>
+        <v>7.89</v>
       </c>
       <c r="F48" t="n">
-        <v>13971</v>
+        <v>5291.7116</v>
       </c>
       <c r="G48" t="n">
-        <v>8.0105</v>
+        <v>8.014000000000001</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1642,12 +1788,15 @@
         <v>7.9</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3426</v>
+        <v>13971</v>
       </c>
       <c r="G49" t="n">
-        <v>8.007166666666667</v>
+        <v>8.0105</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>7.99</v>
+        <v>7.9</v>
       </c>
       <c r="C50" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="D50" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="E50" t="n">
-        <v>7.99</v>
+        <v>7.9</v>
       </c>
       <c r="F50" t="n">
-        <v>41782.1331</v>
+        <v>0.3426</v>
       </c>
       <c r="G50" t="n">
-        <v>8.005666666666666</v>
+        <v>8.007166666666667</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>7.91</v>
+        <v>7.99</v>
       </c>
       <c r="C51" t="n">
-        <v>7.91</v>
+        <v>8</v>
       </c>
       <c r="D51" t="n">
-        <v>7.91</v>
+        <v>8</v>
       </c>
       <c r="E51" t="n">
-        <v>7.91</v>
+        <v>7.99</v>
       </c>
       <c r="F51" t="n">
-        <v>143.1</v>
+        <v>41782.1331</v>
       </c>
       <c r="G51" t="n">
-        <v>8.002833333333333</v>
+        <v>8.005666666666666</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>7.89</v>
+        <v>7.91</v>
       </c>
       <c r="C52" t="n">
-        <v>7.74</v>
+        <v>7.91</v>
       </c>
       <c r="D52" t="n">
-        <v>7.89</v>
+        <v>7.91</v>
       </c>
       <c r="E52" t="n">
-        <v>7.74</v>
+        <v>7.91</v>
       </c>
       <c r="F52" t="n">
-        <v>113085.7544</v>
+        <v>143.1</v>
       </c>
       <c r="G52" t="n">
-        <v>7.997333333333334</v>
+        <v>8.002833333333333</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>7.82</v>
+        <v>7.89</v>
       </c>
       <c r="C53" t="n">
-        <v>7.65</v>
+        <v>7.74</v>
       </c>
       <c r="D53" t="n">
-        <v>7.82</v>
+        <v>7.89</v>
       </c>
       <c r="E53" t="n">
-        <v>7.65</v>
+        <v>7.74</v>
       </c>
       <c r="F53" t="n">
-        <v>212035.7896</v>
+        <v>113085.7544</v>
       </c>
       <c r="G53" t="n">
-        <v>7.9905</v>
+        <v>7.997333333333334</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="C54" t="n">
         <v>7.65</v>
       </c>
-      <c r="C54" t="n">
-        <v>7.64</v>
-      </c>
       <c r="D54" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="E54" t="n">
         <v>7.65</v>
       </c>
-      <c r="E54" t="n">
-        <v>7.64</v>
-      </c>
       <c r="F54" t="n">
-        <v>127221.4739</v>
+        <v>212035.7896</v>
       </c>
       <c r="G54" t="n">
-        <v>7.983833333333333</v>
+        <v>7.9905</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>7.91</v>
+        <v>7.65</v>
       </c>
       <c r="C55" t="n">
-        <v>7.91</v>
+        <v>7.64</v>
       </c>
       <c r="D55" t="n">
-        <v>7.91</v>
+        <v>7.65</v>
       </c>
       <c r="E55" t="n">
-        <v>7.91</v>
+        <v>7.64</v>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>127221.4739</v>
       </c>
       <c r="G55" t="n">
-        <v>7.981666666666666</v>
+        <v>7.983833333333333</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>7.96</v>
+        <v>7.91</v>
       </c>
       <c r="C56" t="n">
-        <v>7.98</v>
+        <v>7.91</v>
       </c>
       <c r="D56" t="n">
-        <v>7.98</v>
+        <v>7.91</v>
       </c>
       <c r="E56" t="n">
-        <v>7.96</v>
+        <v>7.91</v>
       </c>
       <c r="F56" t="n">
-        <v>75082.77</v>
+        <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>7.980166666666666</v>
+        <v>7.981666666666666</v>
       </c>
       <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1841,21 +2011,24 @@
         <v>7.96</v>
       </c>
       <c r="C57" t="n">
-        <v>7.95</v>
+        <v>7.98</v>
       </c>
       <c r="D57" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="E57" t="n">
         <v>7.96</v>
       </c>
-      <c r="E57" t="n">
-        <v>7.95</v>
-      </c>
       <c r="F57" t="n">
-        <v>30212.0343</v>
+        <v>75082.77</v>
       </c>
       <c r="G57" t="n">
-        <v>7.979333333333333</v>
+        <v>7.980166666666666</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1876,12 +2049,15 @@
         <v>7.95</v>
       </c>
       <c r="F58" t="n">
-        <v>34091.7884</v>
+        <v>30212.0343</v>
       </c>
       <c r="G58" t="n">
-        <v>7.977333333333333</v>
+        <v>7.979333333333333</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>8.050000000000001</v>
+        <v>7.96</v>
       </c>
       <c r="C59" t="n">
-        <v>8.050000000000001</v>
+        <v>7.95</v>
       </c>
       <c r="D59" t="n">
-        <v>8.050000000000001</v>
+        <v>7.96</v>
       </c>
       <c r="E59" t="n">
-        <v>8.050000000000001</v>
+        <v>7.95</v>
       </c>
       <c r="F59" t="n">
-        <v>43620</v>
+        <v>34091.7884</v>
       </c>
       <c r="G59" t="n">
-        <v>7.977166666666666</v>
+        <v>7.977333333333333</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>8.07</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>8.07</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>8.07</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>8.07</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>32430</v>
+        <v>43620</v>
       </c>
       <c r="G60" t="n">
-        <v>7.975833333333333</v>
+        <v>7.977166666666666</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1954,12 +2136,15 @@
         <v>8.07</v>
       </c>
       <c r="F61" t="n">
-        <v>24729.9999</v>
+        <v>32430</v>
       </c>
       <c r="G61" t="n">
-        <v>7.976</v>
+        <v>7.975833333333333</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>7.93</v>
+        <v>8.07</v>
       </c>
       <c r="C62" t="n">
-        <v>7.93</v>
+        <v>8.07</v>
       </c>
       <c r="D62" t="n">
-        <v>7.93</v>
+        <v>8.07</v>
       </c>
       <c r="E62" t="n">
-        <v>7.93</v>
+        <v>8.07</v>
       </c>
       <c r="F62" t="n">
-        <v>997.9514</v>
+        <v>24729.9999</v>
       </c>
       <c r="G62" t="n">
-        <v>7.973666666666667</v>
+        <v>7.976</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>8.15</v>
+        <v>7.93</v>
       </c>
       <c r="C63" t="n">
-        <v>8.15</v>
+        <v>7.93</v>
       </c>
       <c r="D63" t="n">
-        <v>8.15</v>
+        <v>7.93</v>
       </c>
       <c r="E63" t="n">
-        <v>8.15</v>
+        <v>7.93</v>
       </c>
       <c r="F63" t="n">
-        <v>11</v>
+        <v>997.9514</v>
       </c>
       <c r="G63" t="n">
-        <v>7.974833333333334</v>
+        <v>7.973666666666667</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>7.92</v>
+        <v>8.15</v>
       </c>
       <c r="C64" t="n">
-        <v>7.92</v>
+        <v>8.15</v>
       </c>
       <c r="D64" t="n">
-        <v>7.92</v>
+        <v>8.15</v>
       </c>
       <c r="E64" t="n">
-        <v>7.92</v>
+        <v>8.15</v>
       </c>
       <c r="F64" t="n">
-        <v>713.4211</v>
+        <v>11</v>
       </c>
       <c r="G64" t="n">
-        <v>7.971833333333334</v>
+        <v>7.974833333333334</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>7.93</v>
+        <v>7.92</v>
       </c>
       <c r="C65" t="n">
-        <v>7.95</v>
+        <v>7.92</v>
       </c>
       <c r="D65" t="n">
-        <v>7.95</v>
+        <v>7.92</v>
       </c>
       <c r="E65" t="n">
         <v>7.92</v>
       </c>
       <c r="F65" t="n">
-        <v>37603.7987</v>
+        <v>713.4211</v>
       </c>
       <c r="G65" t="n">
-        <v>7.9695</v>
+        <v>7.971833333333334</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>7.92</v>
+        <v>7.93</v>
       </c>
       <c r="C66" t="n">
-        <v>7.92</v>
+        <v>7.95</v>
       </c>
       <c r="D66" t="n">
-        <v>7.92</v>
+        <v>7.95</v>
       </c>
       <c r="E66" t="n">
         <v>7.92</v>
       </c>
       <c r="F66" t="n">
-        <v>27981.7563</v>
+        <v>37603.7987</v>
       </c>
       <c r="G66" t="n">
-        <v>7.966666666666668</v>
+        <v>7.9695</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>7.91</v>
+        <v>7.92</v>
       </c>
       <c r="C67" t="n">
-        <v>7.71</v>
+        <v>7.92</v>
       </c>
       <c r="D67" t="n">
-        <v>7.91</v>
+        <v>7.92</v>
       </c>
       <c r="E67" t="n">
-        <v>7.71</v>
+        <v>7.92</v>
       </c>
       <c r="F67" t="n">
-        <v>50000</v>
+        <v>27981.7563</v>
       </c>
       <c r="G67" t="n">
-        <v>7.96</v>
+        <v>7.966666666666668</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>7.95</v>
+        <v>7.91</v>
       </c>
       <c r="C68" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="D68" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="E68" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="F68" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G68" t="n">
         <v>7.96</v>
       </c>
-      <c r="D68" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="E68" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="F68" t="n">
-        <v>37051.9613</v>
-      </c>
-      <c r="G68" t="n">
-        <v>7.958</v>
-      </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>8.02</v>
+        <v>7.95</v>
       </c>
       <c r="C69" t="n">
-        <v>8.02</v>
+        <v>7.96</v>
       </c>
       <c r="D69" t="n">
-        <v>8.02</v>
+        <v>7.97</v>
       </c>
       <c r="E69" t="n">
-        <v>8.02</v>
+        <v>7.95</v>
       </c>
       <c r="F69" t="n">
-        <v>1990.0311</v>
+        <v>37051.9613</v>
       </c>
       <c r="G69" t="n">
-        <v>7.957</v>
+        <v>7.958</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>7.97</v>
+        <v>8.02</v>
       </c>
       <c r="C70" t="n">
-        <v>7.98</v>
+        <v>8.02</v>
       </c>
       <c r="D70" t="n">
-        <v>7.98</v>
+        <v>8.02</v>
       </c>
       <c r="E70" t="n">
-        <v>7.97</v>
+        <v>8.02</v>
       </c>
       <c r="F70" t="n">
-        <v>7120</v>
+        <v>1990.0311</v>
       </c>
       <c r="G70" t="n">
-        <v>7.955</v>
+        <v>7.957</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>8</v>
+        <v>7.97</v>
       </c>
       <c r="C71" t="n">
-        <v>8</v>
+        <v>7.98</v>
       </c>
       <c r="D71" t="n">
-        <v>8</v>
+        <v>7.98</v>
       </c>
       <c r="E71" t="n">
-        <v>8</v>
+        <v>7.97</v>
       </c>
       <c r="F71" t="n">
-        <v>44440</v>
+        <v>7120</v>
       </c>
       <c r="G71" t="n">
-        <v>7.953833333333334</v>
+        <v>7.955</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>7.78</v>
+        <v>8</v>
       </c>
       <c r="C72" t="n">
-        <v>7.78</v>
+        <v>8</v>
       </c>
       <c r="D72" t="n">
-        <v>7.78</v>
+        <v>8</v>
       </c>
       <c r="E72" t="n">
-        <v>7.78</v>
+        <v>8</v>
       </c>
       <c r="F72" t="n">
-        <v>25</v>
+        <v>44440</v>
       </c>
       <c r="G72" t="n">
-        <v>7.949166666666667</v>
+        <v>7.953833333333334</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2257,21 +2475,24 @@
         <v>7.78</v>
       </c>
       <c r="C73" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="D73" t="n">
-        <v>7.79</v>
+        <v>7.78</v>
       </c>
       <c r="E73" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="F73" t="n">
-        <v>1037.4687</v>
+        <v>25</v>
       </c>
       <c r="G73" t="n">
-        <v>7.943833333333333</v>
+        <v>7.949166666666667</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2283,21 +2504,24 @@
         <v>7.78</v>
       </c>
       <c r="C74" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="D74" t="n">
-        <v>7.78</v>
+        <v>7.79</v>
       </c>
       <c r="E74" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="F74" t="n">
-        <v>10000</v>
+        <v>1037.4687</v>
       </c>
       <c r="G74" t="n">
-        <v>7.938999999999999</v>
+        <v>7.943833333333333</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2321,9 +2545,12 @@
         <v>10000</v>
       </c>
       <c r="G75" t="n">
-        <v>7.934333333333332</v>
+        <v>7.938999999999999</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2344,12 +2571,15 @@
         <v>7.78</v>
       </c>
       <c r="F76" t="n">
-        <v>47960.4113</v>
+        <v>10000</v>
       </c>
       <c r="G76" t="n">
-        <v>7.930833333333331</v>
+        <v>7.934333333333332</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2370,12 +2600,15 @@
         <v>7.78</v>
       </c>
       <c r="F77" t="n">
-        <v>7710</v>
+        <v>47960.4113</v>
       </c>
       <c r="G77" t="n">
-        <v>7.927499999999998</v>
+        <v>7.930833333333331</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>7.73</v>
+        <v>7.78</v>
       </c>
       <c r="C78" t="n">
-        <v>7.73</v>
+        <v>7.78</v>
       </c>
       <c r="D78" t="n">
-        <v>7.73</v>
+        <v>7.78</v>
       </c>
       <c r="E78" t="n">
-        <v>7.73</v>
+        <v>7.78</v>
       </c>
       <c r="F78" t="n">
-        <v>9221.1248</v>
+        <v>7710</v>
       </c>
       <c r="G78" t="n">
-        <v>7.922166666666665</v>
+        <v>7.927499999999998</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>7.99</v>
+        <v>7.73</v>
       </c>
       <c r="C79" t="n">
-        <v>7.99</v>
+        <v>7.73</v>
       </c>
       <c r="D79" t="n">
-        <v>7.99</v>
+        <v>7.73</v>
       </c>
       <c r="E79" t="n">
-        <v>7.99</v>
+        <v>7.73</v>
       </c>
       <c r="F79" t="n">
-        <v>7500</v>
+        <v>9221.1248</v>
       </c>
       <c r="G79" t="n">
-        <v>7.922333333333331</v>
+        <v>7.922166666666665</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,7 +2675,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>7.98</v>
+        <v>7.99</v>
       </c>
       <c r="C80" t="n">
         <v>7.99</v>
@@ -2445,15 +2684,18 @@
         <v>7.99</v>
       </c>
       <c r="E80" t="n">
-        <v>7.98</v>
+        <v>7.99</v>
       </c>
       <c r="F80" t="n">
-        <v>9860</v>
+        <v>7500</v>
       </c>
       <c r="G80" t="n">
-        <v>7.921666666666665</v>
+        <v>7.922333333333331</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>7.74</v>
+        <v>7.98</v>
       </c>
       <c r="C81" t="n">
-        <v>7.74</v>
+        <v>7.99</v>
       </c>
       <c r="D81" t="n">
-        <v>7.74</v>
+        <v>7.99</v>
       </c>
       <c r="E81" t="n">
-        <v>7.74</v>
+        <v>7.98</v>
       </c>
       <c r="F81" t="n">
-        <v>18148.4499</v>
+        <v>9860</v>
       </c>
       <c r="G81" t="n">
-        <v>7.917666666666665</v>
+        <v>7.921666666666665</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2497,15 +2742,18 @@
         <v>7.74</v>
       </c>
       <c r="E82" t="n">
-        <v>7.73</v>
+        <v>7.74</v>
       </c>
       <c r="F82" t="n">
-        <v>21851.5501</v>
+        <v>18148.4499</v>
       </c>
       <c r="G82" t="n">
-        <v>7.913833333333331</v>
+        <v>7.917666666666665</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>7.76</v>
+        <v>7.74</v>
       </c>
       <c r="C83" t="n">
-        <v>7.75</v>
+        <v>7.74</v>
       </c>
       <c r="D83" t="n">
-        <v>7.76</v>
+        <v>7.74</v>
       </c>
       <c r="E83" t="n">
-        <v>7.75</v>
+        <v>7.73</v>
       </c>
       <c r="F83" t="n">
-        <v>68878.5297</v>
+        <v>21851.5501</v>
       </c>
       <c r="G83" t="n">
-        <v>7.910333333333331</v>
+        <v>7.913833333333331</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>7.75</v>
+        <v>7.76</v>
       </c>
       <c r="C84" t="n">
         <v>7.75</v>
       </c>
       <c r="D84" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="E84" t="n">
         <v>7.75</v>
       </c>
-      <c r="E84" t="n">
-        <v>7.74</v>
-      </c>
       <c r="F84" t="n">
-        <v>613918.9005</v>
+        <v>68878.5297</v>
       </c>
       <c r="G84" t="n">
-        <v>7.906999999999998</v>
+        <v>7.910333333333331</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2578,12 +2832,15 @@
         <v>7.74</v>
       </c>
       <c r="F85" t="n">
-        <v>606442.6534</v>
+        <v>613918.9005</v>
       </c>
       <c r="G85" t="n">
-        <v>7.903833333333332</v>
+        <v>7.906999999999998</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2595,21 +2852,24 @@
         <v>7.75</v>
       </c>
       <c r="C86" t="n">
-        <v>7.99</v>
+        <v>7.75</v>
       </c>
       <c r="D86" t="n">
-        <v>7.99</v>
+        <v>7.75</v>
       </c>
       <c r="E86" t="n">
-        <v>7.75</v>
+        <v>7.74</v>
       </c>
       <c r="F86" t="n">
-        <v>150155.4961</v>
+        <v>606442.6534</v>
       </c>
       <c r="G86" t="n">
-        <v>7.908333333333331</v>
+        <v>7.903833333333332</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>7.8</v>
+        <v>7.75</v>
       </c>
       <c r="C87" t="n">
-        <v>7.78</v>
+        <v>7.99</v>
       </c>
       <c r="D87" t="n">
-        <v>7.8</v>
+        <v>7.99</v>
       </c>
       <c r="E87" t="n">
-        <v>7.78</v>
+        <v>7.75</v>
       </c>
       <c r="F87" t="n">
-        <v>34517.7876</v>
+        <v>150155.4961</v>
       </c>
       <c r="G87" t="n">
-        <v>7.905333333333331</v>
+        <v>7.908333333333331</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>7.97</v>
+        <v>7.8</v>
       </c>
       <c r="C88" t="n">
-        <v>7.99</v>
+        <v>7.78</v>
       </c>
       <c r="D88" t="n">
-        <v>7.99</v>
+        <v>7.8</v>
       </c>
       <c r="E88" t="n">
-        <v>7.97</v>
+        <v>7.78</v>
       </c>
       <c r="F88" t="n">
-        <v>20470</v>
+        <v>34517.7876</v>
       </c>
       <c r="G88" t="n">
-        <v>7.905499999999998</v>
+        <v>7.905333333333331</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,7 +2936,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>7.98</v>
+        <v>7.97</v>
       </c>
       <c r="C89" t="n">
         <v>7.99</v>
@@ -2679,15 +2945,18 @@
         <v>7.99</v>
       </c>
       <c r="E89" t="n">
-        <v>7.98</v>
+        <v>7.97</v>
       </c>
       <c r="F89" t="n">
-        <v>75478.96120000001</v>
+        <v>20470</v>
       </c>
       <c r="G89" t="n">
-        <v>7.905333333333331</v>
+        <v>7.905499999999998</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,7 +2965,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>7.99</v>
+        <v>7.98</v>
       </c>
       <c r="C90" t="n">
         <v>7.99</v>
@@ -2705,15 +2974,18 @@
         <v>7.99</v>
       </c>
       <c r="E90" t="n">
-        <v>7.99</v>
+        <v>7.98</v>
       </c>
       <c r="F90" t="n">
-        <v>35659.4493</v>
+        <v>75478.96120000001</v>
       </c>
       <c r="G90" t="n">
-        <v>7.905166666666664</v>
+        <v>7.905333333333331</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2734,12 +3006,15 @@
         <v>7.99</v>
       </c>
       <c r="F91" t="n">
-        <v>10000</v>
+        <v>35659.4493</v>
       </c>
       <c r="G91" t="n">
-        <v>7.904999999999998</v>
+        <v>7.905166666666664</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2760,12 +3035,15 @@
         <v>7.99</v>
       </c>
       <c r="F92" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G92" t="n">
-        <v>7.906666666666665</v>
+        <v>7.904999999999998</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2786,12 +3064,15 @@
         <v>7.99</v>
       </c>
       <c r="F93" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="G93" t="n">
-        <v>7.909666666666666</v>
+        <v>7.906666666666665</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2812,12 +3093,15 @@
         <v>7.99</v>
       </c>
       <c r="F94" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="G94" t="n">
-        <v>7.908499999999999</v>
+        <v>7.909666666666666</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2841,9 +3125,12 @@
         <v>40000</v>
       </c>
       <c r="G95" t="n">
-        <v>7.907333333333332</v>
+        <v>7.908499999999999</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2864,12 +3151,15 @@
         <v>7.99</v>
       </c>
       <c r="F96" t="n">
-        <v>4301.8773</v>
+        <v>40000</v>
       </c>
       <c r="G96" t="n">
-        <v>7.907499999999999</v>
+        <v>7.907333333333332</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2890,12 +3180,15 @@
         <v>7.99</v>
       </c>
       <c r="F97" t="n">
-        <v>7050</v>
+        <v>4301.8773</v>
       </c>
       <c r="G97" t="n">
-        <v>7.907666666666666</v>
+        <v>7.907499999999999</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2916,12 +3209,15 @@
         <v>7.99</v>
       </c>
       <c r="F98" t="n">
-        <v>14540</v>
+        <v>7050</v>
       </c>
       <c r="G98" t="n">
-        <v>7.910833333333332</v>
+        <v>7.907666666666666</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>7.98</v>
+        <v>7.99</v>
       </c>
       <c r="C99" t="n">
-        <v>7.98</v>
+        <v>7.99</v>
       </c>
       <c r="D99" t="n">
-        <v>7.98</v>
+        <v>7.99</v>
       </c>
       <c r="E99" t="n">
-        <v>7.98</v>
+        <v>7.99</v>
       </c>
       <c r="F99" t="n">
-        <v>516.6666</v>
+        <v>14540</v>
       </c>
       <c r="G99" t="n">
-        <v>7.910666666666666</v>
+        <v>7.910833333333332</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>7.86</v>
+        <v>7.98</v>
       </c>
       <c r="C100" t="n">
-        <v>7.78</v>
+        <v>7.98</v>
       </c>
       <c r="D100" t="n">
-        <v>7.86</v>
+        <v>7.98</v>
       </c>
       <c r="E100" t="n">
-        <v>7.78</v>
+        <v>7.98</v>
       </c>
       <c r="F100" t="n">
-        <v>84400.75199999999</v>
+        <v>516.6666</v>
       </c>
       <c r="G100" t="n">
-        <v>7.907166666666665</v>
+        <v>7.910666666666666</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>7.85</v>
+        <v>7.86</v>
       </c>
       <c r="C101" t="n">
-        <v>7.85</v>
+        <v>7.78</v>
       </c>
       <c r="D101" t="n">
-        <v>7.85</v>
+        <v>7.86</v>
       </c>
       <c r="E101" t="n">
-        <v>7.85</v>
+        <v>7.78</v>
       </c>
       <c r="F101" t="n">
-        <v>8210</v>
+        <v>84400.75199999999</v>
       </c>
       <c r="G101" t="n">
-        <v>7.904833333333332</v>
+        <v>7.907166666666665</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>7.86</v>
+        <v>7.85</v>
       </c>
       <c r="C102" t="n">
-        <v>7.86</v>
+        <v>7.85</v>
       </c>
       <c r="D102" t="n">
-        <v>7.86</v>
+        <v>7.85</v>
       </c>
       <c r="E102" t="n">
-        <v>7.86</v>
+        <v>7.85</v>
       </c>
       <c r="F102" t="n">
-        <v>5884.0769</v>
+        <v>8210</v>
       </c>
       <c r="G102" t="n">
-        <v>7.902499999999999</v>
+        <v>7.904833333333332</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>7.97</v>
+        <v>7.86</v>
       </c>
       <c r="C103" t="n">
-        <v>7.98</v>
+        <v>7.86</v>
       </c>
       <c r="D103" t="n">
-        <v>7.98</v>
+        <v>7.86</v>
       </c>
       <c r="E103" t="n">
-        <v>7.97</v>
+        <v>7.86</v>
       </c>
       <c r="F103" t="n">
-        <v>14960</v>
+        <v>5884.0769</v>
       </c>
       <c r="G103" t="n">
-        <v>7.902833333333333</v>
+        <v>7.902499999999999</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>7.67</v>
+        <v>7.97</v>
       </c>
       <c r="C104" t="n">
-        <v>7.67</v>
+        <v>7.98</v>
       </c>
       <c r="D104" t="n">
-        <v>7.67</v>
+        <v>7.98</v>
       </c>
       <c r="E104" t="n">
-        <v>7.67</v>
+        <v>7.97</v>
       </c>
       <c r="F104" t="n">
-        <v>10</v>
+        <v>14960</v>
       </c>
       <c r="G104" t="n">
-        <v>7.898</v>
+        <v>7.902833333333333</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3089,21 +3403,24 @@
         <v>7.67</v>
       </c>
       <c r="C105" t="n">
-        <v>7.7</v>
+        <v>7.67</v>
       </c>
       <c r="D105" t="n">
-        <v>7.72</v>
+        <v>7.67</v>
       </c>
       <c r="E105" t="n">
         <v>7.67</v>
       </c>
       <c r="F105" t="n">
-        <v>292183.7948</v>
+        <v>10</v>
       </c>
       <c r="G105" t="n">
-        <v>7.893666666666666</v>
+        <v>7.898</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>7.69</v>
+        <v>7.67</v>
       </c>
       <c r="C106" t="n">
         <v>7.7</v>
       </c>
       <c r="D106" t="n">
-        <v>7.7</v>
+        <v>7.72</v>
       </c>
       <c r="E106" t="n">
-        <v>7.69</v>
+        <v>7.67</v>
       </c>
       <c r="F106" t="n">
-        <v>9330</v>
+        <v>292183.7948</v>
       </c>
       <c r="G106" t="n">
-        <v>7.890666666666666</v>
+        <v>7.893666666666666</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,7 +3458,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>7.7</v>
+        <v>7.69</v>
       </c>
       <c r="C107" t="n">
         <v>7.7</v>
@@ -3147,15 +3467,18 @@
         <v>7.7</v>
       </c>
       <c r="E107" t="n">
-        <v>7.7</v>
+        <v>7.69</v>
       </c>
       <c r="F107" t="n">
-        <v>15010</v>
+        <v>9330</v>
       </c>
       <c r="G107" t="n">
-        <v>7.8875</v>
+        <v>7.890666666666666</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3176,12 +3499,15 @@
         <v>7.7</v>
       </c>
       <c r="F108" t="n">
-        <v>7830</v>
+        <v>15010</v>
       </c>
       <c r="G108" t="n">
-        <v>7.884166666666667</v>
+        <v>7.8875</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3202,12 +3528,15 @@
         <v>7.7</v>
       </c>
       <c r="F109" t="n">
-        <v>271.1688</v>
+        <v>7830</v>
       </c>
       <c r="G109" t="n">
-        <v>7.880833333333333</v>
+        <v>7.884166666666667</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3219,21 +3548,24 @@
         <v>7.7</v>
       </c>
       <c r="C110" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="D110" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="E110" t="n">
         <v>7.7</v>
       </c>
       <c r="F110" t="n">
-        <v>27170</v>
+        <v>271.1688</v>
       </c>
       <c r="G110" t="n">
-        <v>7.879166666666666</v>
+        <v>7.880833333333333</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>7.68</v>
+        <v>7.7</v>
       </c>
       <c r="C111" t="n">
-        <v>7.61</v>
+        <v>7.9</v>
       </c>
       <c r="D111" t="n">
-        <v>7.68</v>
+        <v>7.9</v>
       </c>
       <c r="E111" t="n">
-        <v>7.61</v>
+        <v>7.7</v>
       </c>
       <c r="F111" t="n">
-        <v>47913.2671</v>
+        <v>27170</v>
       </c>
       <c r="G111" t="n">
-        <v>7.874166666666667</v>
+        <v>7.879166666666666</v>
       </c>
       <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="C112" t="n">
         <v>7.61</v>
       </c>
-      <c r="C112" t="n">
-        <v>7.57</v>
-      </c>
       <c r="D112" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="E112" t="n">
         <v>7.61</v>
       </c>
-      <c r="E112" t="n">
-        <v>7.57</v>
-      </c>
       <c r="F112" t="n">
-        <v>137870.7329</v>
+        <v>47913.2671</v>
       </c>
       <c r="G112" t="n">
-        <v>7.871333333333333</v>
+        <v>7.874166666666667</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3297,21 +3635,24 @@
         <v>7.61</v>
       </c>
       <c r="C113" t="n">
-        <v>7.61</v>
+        <v>7.57</v>
       </c>
       <c r="D113" t="n">
         <v>7.61</v>
       </c>
       <c r="E113" t="n">
-        <v>7.61</v>
+        <v>7.57</v>
       </c>
       <c r="F113" t="n">
-        <v>10</v>
+        <v>137870.7329</v>
       </c>
       <c r="G113" t="n">
-        <v>7.870666666666667</v>
+        <v>7.871333333333333</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>7.7</v>
+        <v>7.61</v>
       </c>
       <c r="C114" t="n">
-        <v>7.7</v>
+        <v>7.61</v>
       </c>
       <c r="D114" t="n">
-        <v>7.7</v>
+        <v>7.61</v>
       </c>
       <c r="E114" t="n">
-        <v>7.7</v>
+        <v>7.61</v>
       </c>
       <c r="F114" t="n">
-        <v>326.6654</v>
+        <v>10</v>
       </c>
       <c r="G114" t="n">
-        <v>7.871666666666667</v>
+        <v>7.870666666666667</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>7.76</v>
+        <v>7.7</v>
       </c>
       <c r="C115" t="n">
-        <v>7.75</v>
+        <v>7.7</v>
       </c>
       <c r="D115" t="n">
-        <v>7.76</v>
+        <v>7.7</v>
       </c>
       <c r="E115" t="n">
-        <v>7.75</v>
+        <v>7.7</v>
       </c>
       <c r="F115" t="n">
-        <v>12060</v>
+        <v>326.6654</v>
       </c>
       <c r="G115" t="n">
-        <v>7.869</v>
+        <v>7.871666666666667</v>
       </c>
       <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>7.74</v>
+        <v>7.76</v>
       </c>
       <c r="C116" t="n">
-        <v>7.65</v>
+        <v>7.75</v>
       </c>
       <c r="D116" t="n">
-        <v>7.74</v>
+        <v>7.76</v>
       </c>
       <c r="E116" t="n">
-        <v>7.65</v>
+        <v>7.75</v>
       </c>
       <c r="F116" t="n">
-        <v>100</v>
+        <v>12060</v>
       </c>
       <c r="G116" t="n">
-        <v>7.863499999999999</v>
+        <v>7.869</v>
       </c>
       <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>7.8</v>
+        <v>7.74</v>
       </c>
       <c r="C117" t="n">
-        <v>7.59</v>
+        <v>7.65</v>
       </c>
       <c r="D117" t="n">
-        <v>7.8</v>
+        <v>7.74</v>
       </c>
       <c r="E117" t="n">
-        <v>7.59</v>
+        <v>7.65</v>
       </c>
       <c r="F117" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G117" t="n">
-        <v>7.857499999999999</v>
+        <v>7.863499999999999</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>7.89</v>
+        <v>7.8</v>
       </c>
       <c r="C118" t="n">
-        <v>7.89</v>
+        <v>7.59</v>
       </c>
       <c r="D118" t="n">
-        <v>7.89</v>
+        <v>7.8</v>
       </c>
       <c r="E118" t="n">
-        <v>7.89</v>
+        <v>7.59</v>
       </c>
       <c r="F118" t="n">
-        <v>15930</v>
+        <v>300</v>
       </c>
       <c r="G118" t="n">
-        <v>7.856499999999999</v>
+        <v>7.857499999999999</v>
       </c>
       <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>7.61</v>
+        <v>7.89</v>
       </c>
       <c r="C119" t="n">
-        <v>7.61</v>
+        <v>7.89</v>
       </c>
       <c r="D119" t="n">
-        <v>7.61</v>
+        <v>7.89</v>
       </c>
       <c r="E119" t="n">
-        <v>7.61</v>
+        <v>7.89</v>
       </c>
       <c r="F119" t="n">
-        <v>3985.6239</v>
+        <v>15930</v>
       </c>
       <c r="G119" t="n">
-        <v>7.849166666666665</v>
+        <v>7.856499999999999</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>7.86</v>
+        <v>7.61</v>
       </c>
       <c r="C120" t="n">
-        <v>7.87</v>
+        <v>7.61</v>
       </c>
       <c r="D120" t="n">
-        <v>7.87</v>
+        <v>7.61</v>
       </c>
       <c r="E120" t="n">
-        <v>7.86</v>
+        <v>7.61</v>
       </c>
       <c r="F120" t="n">
-        <v>8140</v>
+        <v>3985.6239</v>
       </c>
       <c r="G120" t="n">
-        <v>7.845833333333332</v>
+        <v>7.849166666666665</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>7.8</v>
+        <v>7.86</v>
       </c>
       <c r="C121" t="n">
-        <v>7.78</v>
+        <v>7.87</v>
       </c>
       <c r="D121" t="n">
-        <v>7.8</v>
+        <v>7.87</v>
       </c>
       <c r="E121" t="n">
-        <v>7.78</v>
+        <v>7.86</v>
       </c>
       <c r="F121" t="n">
-        <v>7440</v>
+        <v>8140</v>
       </c>
       <c r="G121" t="n">
-        <v>7.840999999999998</v>
+        <v>7.845833333333332</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>7.77</v>
+        <v>7.8</v>
       </c>
       <c r="C122" t="n">
-        <v>7.73</v>
+        <v>7.78</v>
       </c>
       <c r="D122" t="n">
-        <v>7.77</v>
+        <v>7.8</v>
       </c>
       <c r="E122" t="n">
-        <v>7.73</v>
+        <v>7.78</v>
       </c>
       <c r="F122" t="n">
-        <v>411</v>
+        <v>7440</v>
       </c>
       <c r="G122" t="n">
-        <v>7.837666666666665</v>
+        <v>7.840999999999998</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="C123" t="n">
         <v>7.73</v>
       </c>
-      <c r="C123" t="n">
-        <v>7.7</v>
-      </c>
       <c r="D123" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="E123" t="n">
         <v>7.73</v>
       </c>
-      <c r="E123" t="n">
-        <v>7.7</v>
-      </c>
       <c r="F123" t="n">
-        <v>1111</v>
+        <v>411</v>
       </c>
       <c r="G123" t="n">
-        <v>7.830166666666666</v>
+        <v>7.837666666666665</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>7.75</v>
+        <v>7.73</v>
       </c>
       <c r="C124" t="n">
-        <v>7.76</v>
+        <v>7.7</v>
       </c>
       <c r="D124" t="n">
-        <v>7.76</v>
+        <v>7.73</v>
       </c>
       <c r="E124" t="n">
-        <v>7.75</v>
+        <v>7.7</v>
       </c>
       <c r="F124" t="n">
-        <v>711</v>
+        <v>1111</v>
       </c>
       <c r="G124" t="n">
-        <v>7.827499999999999</v>
+        <v>7.830166666666666</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,7 +3980,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>7.76</v>
+        <v>7.75</v>
       </c>
       <c r="C125" t="n">
         <v>7.76</v>
@@ -3615,15 +3989,18 @@
         <v>7.76</v>
       </c>
       <c r="E125" t="n">
-        <v>7.76</v>
+        <v>7.75</v>
       </c>
       <c r="F125" t="n">
-        <v>100</v>
+        <v>711</v>
       </c>
       <c r="G125" t="n">
-        <v>7.824333333333332</v>
+        <v>7.827499999999999</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3647,9 +4024,12 @@
         <v>100</v>
       </c>
       <c r="G126" t="n">
-        <v>7.821666666666665</v>
+        <v>7.824333333333332</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3661,21 +4041,24 @@
         <v>7.76</v>
       </c>
       <c r="C127" t="n">
-        <v>7.77</v>
+        <v>7.76</v>
       </c>
       <c r="D127" t="n">
-        <v>7.77</v>
+        <v>7.76</v>
       </c>
       <c r="E127" t="n">
         <v>7.76</v>
       </c>
       <c r="F127" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="G127" t="n">
-        <v>7.822666666666665</v>
+        <v>7.821666666666665</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="C128" t="n">
         <v>7.77</v>
-      </c>
-      <c r="C128" t="n">
-        <v>7.73</v>
       </c>
       <c r="D128" t="n">
         <v>7.77</v>
       </c>
       <c r="E128" t="n">
-        <v>7.73</v>
+        <v>7.76</v>
       </c>
       <c r="F128" t="n">
-        <v>10400</v>
+        <v>20000</v>
       </c>
       <c r="G128" t="n">
-        <v>7.818833333333332</v>
+        <v>7.822666666666665</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>7.73</v>
+        <v>7.77</v>
       </c>
       <c r="C129" t="n">
         <v>7.73</v>
       </c>
       <c r="D129" t="n">
-        <v>7.73</v>
+        <v>7.77</v>
       </c>
       <c r="E129" t="n">
         <v>7.73</v>
       </c>
       <c r="F129" t="n">
-        <v>22610</v>
+        <v>10400</v>
       </c>
       <c r="G129" t="n">
-        <v>7.813999999999999</v>
+        <v>7.818833333333332</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3739,21 +4128,24 @@
         <v>7.73</v>
       </c>
       <c r="C130" t="n">
-        <v>7.88</v>
+        <v>7.73</v>
       </c>
       <c r="D130" t="n">
-        <v>7.88</v>
+        <v>7.73</v>
       </c>
       <c r="E130" t="n">
         <v>7.73</v>
       </c>
       <c r="F130" t="n">
-        <v>23116.0025</v>
+        <v>22610</v>
       </c>
       <c r="G130" t="n">
-        <v>7.812333333333332</v>
+        <v>7.813999999999999</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>7.8</v>
+        <v>7.73</v>
       </c>
       <c r="C131" t="n">
-        <v>7.7</v>
+        <v>7.88</v>
       </c>
       <c r="D131" t="n">
-        <v>7.8</v>
+        <v>7.88</v>
       </c>
       <c r="E131" t="n">
-        <v>7.7</v>
+        <v>7.73</v>
       </c>
       <c r="F131" t="n">
-        <v>11750</v>
+        <v>23116.0025</v>
       </c>
       <c r="G131" t="n">
-        <v>7.807333333333332</v>
+        <v>7.812333333333332</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>7.78</v>
+        <v>7.8</v>
       </c>
       <c r="C132" t="n">
-        <v>7.65</v>
+        <v>7.7</v>
       </c>
       <c r="D132" t="n">
-        <v>7.78</v>
+        <v>7.8</v>
       </c>
       <c r="E132" t="n">
-        <v>7.65</v>
+        <v>7.7</v>
       </c>
       <c r="F132" t="n">
-        <v>1400</v>
+        <v>11750</v>
       </c>
       <c r="G132" t="n">
-        <v>7.805166666666666</v>
+        <v>7.807333333333332</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="C133" t="n">
         <v>7.65</v>
       </c>
-      <c r="C133" t="n">
-        <v>7.87</v>
-      </c>
       <c r="D133" t="n">
-        <v>7.87</v>
+        <v>7.78</v>
       </c>
       <c r="E133" t="n">
-        <v>7.63</v>
+        <v>7.65</v>
       </c>
       <c r="F133" t="n">
-        <v>303744.0489</v>
+        <v>1400</v>
       </c>
       <c r="G133" t="n">
-        <v>7.806833333333333</v>
+        <v>7.805166666666666</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>7.86</v>
+        <v>7.65</v>
       </c>
       <c r="C134" t="n">
         <v>7.87</v>
       </c>
       <c r="D134" t="n">
-        <v>7.89</v>
+        <v>7.87</v>
       </c>
       <c r="E134" t="n">
-        <v>7.86</v>
+        <v>7.63</v>
       </c>
       <c r="F134" t="n">
-        <v>30870</v>
+        <v>303744.0489</v>
       </c>
       <c r="G134" t="n">
-        <v>7.808333333333334</v>
+        <v>7.806833333333333</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>7.8</v>
+        <v>7.86</v>
       </c>
       <c r="C135" t="n">
-        <v>7.85</v>
+        <v>7.87</v>
       </c>
       <c r="D135" t="n">
-        <v>7.85</v>
+        <v>7.89</v>
       </c>
       <c r="E135" t="n">
-        <v>7.8</v>
+        <v>7.86</v>
       </c>
       <c r="F135" t="n">
-        <v>23170</v>
+        <v>30870</v>
       </c>
       <c r="G135" t="n">
-        <v>7.809500000000001</v>
+        <v>7.808333333333334</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3895,21 +4302,24 @@
         <v>7.8</v>
       </c>
       <c r="C136" t="n">
-        <v>7.8</v>
+        <v>7.85</v>
       </c>
       <c r="D136" t="n">
-        <v>7.8</v>
+        <v>7.85</v>
       </c>
       <c r="E136" t="n">
         <v>7.8</v>
       </c>
       <c r="F136" t="n">
-        <v>100</v>
+        <v>23170</v>
       </c>
       <c r="G136" t="n">
-        <v>7.809833333333335</v>
+        <v>7.809500000000001</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>7.84</v>
+        <v>7.8</v>
       </c>
       <c r="C137" t="n">
-        <v>7.84</v>
+        <v>7.8</v>
       </c>
       <c r="D137" t="n">
-        <v>7.84</v>
+        <v>7.8</v>
       </c>
       <c r="E137" t="n">
-        <v>7.84</v>
+        <v>7.8</v>
       </c>
       <c r="F137" t="n">
         <v>100</v>
       </c>
       <c r="G137" t="n">
-        <v>7.810833333333335</v>
+        <v>7.809833333333335</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>7.83</v>
+        <v>7.84</v>
       </c>
       <c r="C138" t="n">
-        <v>7.8</v>
+        <v>7.84</v>
       </c>
       <c r="D138" t="n">
-        <v>7.83</v>
+        <v>7.84</v>
       </c>
       <c r="E138" t="n">
-        <v>7.8</v>
+        <v>7.84</v>
       </c>
       <c r="F138" t="n">
-        <v>27986.6346</v>
+        <v>100</v>
       </c>
       <c r="G138" t="n">
-        <v>7.812000000000001</v>
+        <v>7.810833333333335</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>7.79</v>
+        <v>7.83</v>
       </c>
       <c r="C139" t="n">
-        <v>7.66</v>
+        <v>7.8</v>
       </c>
       <c r="D139" t="n">
-        <v>7.79</v>
+        <v>7.83</v>
       </c>
       <c r="E139" t="n">
-        <v>7.66</v>
+        <v>7.8</v>
       </c>
       <c r="F139" t="n">
-        <v>1400</v>
+        <v>27986.6346</v>
       </c>
       <c r="G139" t="n">
-        <v>7.806500000000002</v>
+        <v>7.812000000000001</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>7.81</v>
+        <v>7.79</v>
       </c>
       <c r="C140" t="n">
-        <v>7.81</v>
+        <v>7.66</v>
       </c>
       <c r="D140" t="n">
-        <v>7.81</v>
+        <v>7.79</v>
       </c>
       <c r="E140" t="n">
-        <v>7.81</v>
+        <v>7.66</v>
       </c>
       <c r="F140" t="n">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="G140" t="n">
-        <v>7.803500000000001</v>
+        <v>7.806500000000002</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>7.8</v>
+        <v>7.81</v>
       </c>
       <c r="C141" t="n">
-        <v>7.79</v>
+        <v>7.81</v>
       </c>
       <c r="D141" t="n">
-        <v>7.8</v>
+        <v>7.81</v>
       </c>
       <c r="E141" t="n">
-        <v>7.79</v>
+        <v>7.81</v>
       </c>
       <c r="F141" t="n">
-        <v>7880</v>
+        <v>100</v>
       </c>
       <c r="G141" t="n">
-        <v>7.804333333333335</v>
+        <v>7.803500000000001</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,24 +4473,27 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C142" t="n">
         <v>7.79</v>
       </c>
-      <c r="C142" t="n">
-        <v>7.78</v>
-      </c>
       <c r="D142" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E142" t="n">
         <v>7.79</v>
       </c>
-      <c r="E142" t="n">
-        <v>7.78</v>
-      </c>
       <c r="F142" t="n">
-        <v>15200</v>
+        <v>7880</v>
       </c>
       <c r="G142" t="n">
-        <v>7.805000000000001</v>
+        <v>7.804333333333335</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>7.77</v>
+        <v>7.79</v>
       </c>
       <c r="C143" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="D143" t="n">
-        <v>7.77</v>
+        <v>7.79</v>
       </c>
       <c r="E143" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="F143" t="n">
-        <v>100</v>
+        <v>15200</v>
       </c>
       <c r="G143" t="n">
-        <v>7.805333333333334</v>
+        <v>7.805000000000001</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>7.79</v>
+        <v>7.77</v>
       </c>
       <c r="C144" t="n">
-        <v>7.79</v>
+        <v>7.77</v>
       </c>
       <c r="D144" t="n">
-        <v>7.79</v>
+        <v>7.77</v>
       </c>
       <c r="E144" t="n">
-        <v>7.79</v>
+        <v>7.77</v>
       </c>
       <c r="F144" t="n">
         <v>100</v>
       </c>
       <c r="G144" t="n">
-        <v>7.806000000000001</v>
+        <v>7.805333333333334</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4126,24 +4560,27 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>7.78</v>
+        <v>7.79</v>
       </c>
       <c r="C145" t="n">
-        <v>7.78</v>
+        <v>7.79</v>
       </c>
       <c r="D145" t="n">
-        <v>7.78</v>
+        <v>7.79</v>
       </c>
       <c r="E145" t="n">
-        <v>7.78</v>
+        <v>7.79</v>
       </c>
       <c r="F145" t="n">
         <v>100</v>
       </c>
       <c r="G145" t="n">
-        <v>7.806500000000001</v>
+        <v>7.806000000000001</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4155,21 +4592,24 @@
         <v>7.78</v>
       </c>
       <c r="C146" t="n">
-        <v>7.7</v>
+        <v>7.78</v>
       </c>
       <c r="D146" t="n">
         <v>7.78</v>
       </c>
       <c r="E146" t="n">
-        <v>7.7</v>
+        <v>7.78</v>
       </c>
       <c r="F146" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G146" t="n">
-        <v>7.801666666666667</v>
+        <v>7.806500000000001</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>7.7</v>
+        <v>7.78</v>
       </c>
       <c r="C147" t="n">
         <v>7.7</v>
       </c>
       <c r="D147" t="n">
-        <v>7.7</v>
+        <v>7.78</v>
       </c>
       <c r="E147" t="n">
         <v>7.7</v>
       </c>
       <c r="F147" t="n">
-        <v>966</v>
+        <v>1000</v>
       </c>
       <c r="G147" t="n">
-        <v>7.800333333333334</v>
+        <v>7.801666666666667</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4207,21 +4650,24 @@
         <v>7.7</v>
       </c>
       <c r="C148" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="D148" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="E148" t="n">
         <v>7.7</v>
       </c>
       <c r="F148" t="n">
-        <v>130207.922</v>
+        <v>966</v>
       </c>
       <c r="G148" t="n">
-        <v>7.797166666666667</v>
+        <v>7.800333333333334</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,7 +4676,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>7.79</v>
+        <v>7.7</v>
       </c>
       <c r="C149" t="n">
         <v>7.8</v>
@@ -4239,15 +4685,18 @@
         <v>7.8</v>
       </c>
       <c r="E149" t="n">
-        <v>7.79</v>
+        <v>7.7</v>
       </c>
       <c r="F149" t="n">
-        <v>9000</v>
+        <v>130207.922</v>
       </c>
       <c r="G149" t="n">
-        <v>7.794</v>
+        <v>7.797166666666667</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,24 +4705,27 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>7.78</v>
+        <v>7.79</v>
       </c>
       <c r="C150" t="n">
-        <v>7.77</v>
+        <v>7.8</v>
       </c>
       <c r="D150" t="n">
-        <v>7.78</v>
+        <v>7.8</v>
       </c>
       <c r="E150" t="n">
-        <v>7.77</v>
+        <v>7.79</v>
       </c>
       <c r="F150" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="G150" t="n">
-        <v>7.790333333333334</v>
+        <v>7.794</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="C151" t="n">
         <v>7.77</v>
       </c>
       <c r="D151" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="E151" t="n">
         <v>7.77</v>
       </c>
       <c r="F151" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G151" t="n">
-        <v>7.786666666666666</v>
+        <v>7.790333333333334</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="C152" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="D152" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="E152" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="F152" t="n">
-        <v>8550</v>
+        <v>100</v>
       </c>
       <c r="G152" t="n">
-        <v>7.783166666666665</v>
+        <v>7.786666666666666</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4337,21 +4795,24 @@
         <v>7.78</v>
       </c>
       <c r="C153" t="n">
-        <v>7.64</v>
+        <v>7.78</v>
       </c>
       <c r="D153" t="n">
         <v>7.78</v>
       </c>
       <c r="E153" t="n">
-        <v>7.64</v>
+        <v>7.78</v>
       </c>
       <c r="F153" t="n">
-        <v>271497.6473</v>
+        <v>8550</v>
       </c>
       <c r="G153" t="n">
-        <v>7.777333333333332</v>
+        <v>7.783166666666665</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>7.64</v>
+        <v>7.78</v>
       </c>
       <c r="C154" t="n">
         <v>7.64</v>
       </c>
       <c r="D154" t="n">
-        <v>7.64</v>
+        <v>7.78</v>
       </c>
       <c r="E154" t="n">
         <v>7.64</v>
       </c>
       <c r="F154" t="n">
-        <v>305.1047</v>
+        <v>271497.6473</v>
       </c>
       <c r="G154" t="n">
-        <v>7.771499999999999</v>
+        <v>7.777333333333332</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4398,12 +4862,15 @@
         <v>7.64</v>
       </c>
       <c r="F155" t="n">
-        <v>47836.9318</v>
+        <v>305.1047</v>
       </c>
       <c r="G155" t="n">
-        <v>7.765666666666664</v>
+        <v>7.771499999999999</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,24 +4879,27 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>7.77</v>
+        <v>7.64</v>
       </c>
       <c r="C156" t="n">
-        <v>7.77</v>
+        <v>7.64</v>
       </c>
       <c r="D156" t="n">
-        <v>7.77</v>
+        <v>7.64</v>
       </c>
       <c r="E156" t="n">
-        <v>7.77</v>
+        <v>7.64</v>
       </c>
       <c r="F156" t="n">
-        <v>1319.8198</v>
+        <v>47836.9318</v>
       </c>
       <c r="G156" t="n">
-        <v>7.761999999999998</v>
+        <v>7.765666666666664</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,24 +4908,27 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="C157" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="D157" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="E157" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="F157" t="n">
-        <v>100</v>
+        <v>1319.8198</v>
       </c>
       <c r="G157" t="n">
-        <v>7.758499999999997</v>
+        <v>7.761999999999998</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4467,21 +4940,24 @@
         <v>7.78</v>
       </c>
       <c r="C158" t="n">
-        <v>7.79</v>
+        <v>7.78</v>
       </c>
       <c r="D158" t="n">
-        <v>7.79</v>
+        <v>7.78</v>
       </c>
       <c r="E158" t="n">
         <v>7.78</v>
       </c>
       <c r="F158" t="n">
-        <v>16100</v>
+        <v>100</v>
       </c>
       <c r="G158" t="n">
-        <v>7.755166666666664</v>
+        <v>7.758499999999997</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4493,21 +4969,24 @@
         <v>7.78</v>
       </c>
       <c r="C159" t="n">
-        <v>7.78</v>
+        <v>7.79</v>
       </c>
       <c r="D159" t="n">
-        <v>7.78</v>
+        <v>7.79</v>
       </c>
       <c r="E159" t="n">
         <v>7.78</v>
       </c>
       <c r="F159" t="n">
-        <v>22740</v>
+        <v>16100</v>
       </c>
       <c r="G159" t="n">
-        <v>7.751833333333329</v>
+        <v>7.755166666666664</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,24 +4995,27 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="C160" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="D160" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="E160" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="F160" t="n">
-        <v>100</v>
+        <v>22740</v>
       </c>
       <c r="G160" t="n">
-        <v>7.751666666666663</v>
+        <v>7.751833333333329</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>7.76</v>
+        <v>7.77</v>
       </c>
       <c r="C161" t="n">
-        <v>7.7</v>
+        <v>7.77</v>
       </c>
       <c r="D161" t="n">
-        <v>7.8</v>
+        <v>7.77</v>
       </c>
       <c r="E161" t="n">
-        <v>7.7</v>
+        <v>7.77</v>
       </c>
       <c r="F161" t="n">
-        <v>167025.1923</v>
+        <v>100</v>
       </c>
       <c r="G161" t="n">
-        <v>7.749166666666663</v>
+        <v>7.751666666666663</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,7 +5053,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>7.79</v>
+        <v>7.76</v>
       </c>
       <c r="C162" t="n">
         <v>7.7</v>
@@ -4580,12 +5065,15 @@
         <v>7.7</v>
       </c>
       <c r="F162" t="n">
-        <v>201570.0648</v>
+        <v>167025.1923</v>
       </c>
       <c r="G162" t="n">
-        <v>7.746499999999996</v>
+        <v>7.749166666666663</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="C163" t="n">
         <v>7.7</v>
       </c>
-      <c r="C163" t="n">
-        <v>7.69</v>
-      </c>
       <c r="D163" t="n">
-        <v>7.71</v>
+        <v>7.8</v>
       </c>
       <c r="E163" t="n">
-        <v>7.69</v>
+        <v>7.7</v>
       </c>
       <c r="F163" t="n">
-        <v>400</v>
+        <v>201570.0648</v>
       </c>
       <c r="G163" t="n">
-        <v>7.741666666666662</v>
+        <v>7.746499999999996</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4623,21 +5114,24 @@
         <v>7.7</v>
       </c>
       <c r="C164" t="n">
-        <v>7.7</v>
+        <v>7.69</v>
       </c>
       <c r="D164" t="n">
-        <v>7.7</v>
+        <v>7.71</v>
       </c>
       <c r="E164" t="n">
-        <v>7.7</v>
+        <v>7.69</v>
       </c>
       <c r="F164" t="n">
         <v>400</v>
       </c>
       <c r="G164" t="n">
-        <v>7.742166666666662</v>
+        <v>7.741666666666662</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,24 +5140,27 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>7.69</v>
+        <v>7.7</v>
       </c>
       <c r="C165" t="n">
-        <v>7.69</v>
+        <v>7.7</v>
       </c>
       <c r="D165" t="n">
-        <v>7.69</v>
+        <v>7.7</v>
       </c>
       <c r="E165" t="n">
-        <v>7.69</v>
+        <v>7.7</v>
       </c>
       <c r="F165" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G165" t="n">
-        <v>7.741999999999995</v>
+        <v>7.742166666666662</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>7.68</v>
+        <v>7.69</v>
       </c>
       <c r="C166" t="n">
-        <v>7.65</v>
+        <v>7.69</v>
       </c>
       <c r="D166" t="n">
-        <v>7.68</v>
+        <v>7.69</v>
       </c>
       <c r="E166" t="n">
-        <v>7.65</v>
+        <v>7.69</v>
       </c>
       <c r="F166" t="n">
-        <v>60918.6908</v>
+        <v>100</v>
       </c>
       <c r="G166" t="n">
-        <v>7.741166666666661</v>
+        <v>7.741999999999995</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,24 +5198,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>7.67</v>
+        <v>7.68</v>
       </c>
       <c r="C167" t="n">
-        <v>7.77</v>
+        <v>7.65</v>
       </c>
       <c r="D167" t="n">
-        <v>7.77</v>
+        <v>7.68</v>
       </c>
       <c r="E167" t="n">
-        <v>7.63</v>
+        <v>7.65</v>
       </c>
       <c r="F167" t="n">
-        <v>243805.3875</v>
+        <v>60918.6908</v>
       </c>
       <c r="G167" t="n">
-        <v>7.742333333333328</v>
+        <v>7.741166666666661</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>7.71</v>
+        <v>7.67</v>
       </c>
       <c r="C168" t="n">
-        <v>7.63</v>
+        <v>7.77</v>
       </c>
       <c r="D168" t="n">
-        <v>7.71</v>
+        <v>7.77</v>
       </c>
       <c r="E168" t="n">
         <v>7.63</v>
       </c>
       <c r="F168" t="n">
-        <v>152268.4811</v>
+        <v>243805.3875</v>
       </c>
       <c r="G168" t="n">
-        <v>7.741166666666661</v>
+        <v>7.742333333333328</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,25 +5256,28 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>7.62</v>
+        <v>7.71</v>
       </c>
       <c r="C169" t="n">
-        <v>7.53</v>
+        <v>7.63</v>
       </c>
       <c r="D169" t="n">
-        <v>7.62</v>
+        <v>7.71</v>
       </c>
       <c r="E169" t="n">
-        <v>7.53</v>
+        <v>7.63</v>
       </c>
       <c r="F169" t="n">
-        <v>570617.0820000001</v>
+        <v>152268.4811</v>
       </c>
       <c r="G169" t="n">
-        <v>7.738333333333328</v>
+        <v>7.741166666666661</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -4776,24 +5285,27 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>7.54</v>
+        <v>7.62</v>
       </c>
       <c r="C170" t="n">
-        <v>7.54</v>
+        <v>7.53</v>
       </c>
       <c r="D170" t="n">
-        <v>7.54</v>
+        <v>7.62</v>
       </c>
       <c r="E170" t="n">
-        <v>7.54</v>
+        <v>7.53</v>
       </c>
       <c r="F170" t="n">
-        <v>460.8294</v>
+        <v>570617.0820000001</v>
       </c>
       <c r="G170" t="n">
-        <v>7.732333333333329</v>
+        <v>7.738333333333328</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4814,13 +5326,16 @@
         <v>7.54</v>
       </c>
       <c r="F171" t="n">
-        <v>4634.076</v>
+        <v>460.8294</v>
       </c>
       <c r="G171" t="n">
-        <v>7.731166666666662</v>
+        <v>7.732333333333329</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -4840,12 +5355,15 @@
         <v>7.54</v>
       </c>
       <c r="F172" t="n">
-        <v>463.4076</v>
+        <v>4634.076</v>
       </c>
       <c r="G172" t="n">
-        <v>7.730666666666663</v>
+        <v>7.731166666666662</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,25 +5372,28 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>7.55</v>
+        <v>7.54</v>
       </c>
       <c r="C173" t="n">
-        <v>7.55</v>
+        <v>7.54</v>
       </c>
       <c r="D173" t="n">
-        <v>7.55</v>
+        <v>7.54</v>
       </c>
       <c r="E173" t="n">
-        <v>7.55</v>
+        <v>7.54</v>
       </c>
       <c r="F173" t="n">
-        <v>130588.4175</v>
+        <v>463.4076</v>
       </c>
       <c r="G173" t="n">
-        <v>7.729666666666662</v>
+        <v>7.730666666666663</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -4880,24 +5401,27 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>7.62</v>
+        <v>7.55</v>
       </c>
       <c r="C174" t="n">
-        <v>7.62</v>
+        <v>7.55</v>
       </c>
       <c r="D174" t="n">
-        <v>7.62</v>
+        <v>7.55</v>
       </c>
       <c r="E174" t="n">
-        <v>7.62</v>
+        <v>7.55</v>
       </c>
       <c r="F174" t="n">
-        <v>20</v>
+        <v>130588.4175</v>
       </c>
       <c r="G174" t="n">
-        <v>7.728333333333329</v>
+        <v>7.729666666666662</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4918,13 +5442,16 @@
         <v>7.62</v>
       </c>
       <c r="F175" t="n">
-        <v>114.0419</v>
+        <v>20</v>
       </c>
       <c r="G175" t="n">
-        <v>7.726166666666662</v>
+        <v>7.728333333333329</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -4944,12 +5471,15 @@
         <v>7.62</v>
       </c>
       <c r="F176" t="n">
-        <v>329.3657</v>
+        <v>114.0419</v>
       </c>
       <c r="G176" t="n">
-        <v>7.725666666666664</v>
+        <v>7.726166666666662</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,25 +5488,28 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>7.63</v>
+        <v>7.62</v>
       </c>
       <c r="C177" t="n">
-        <v>7.77</v>
+        <v>7.62</v>
       </c>
       <c r="D177" t="n">
-        <v>7.77</v>
+        <v>7.62</v>
       </c>
       <c r="E177" t="n">
-        <v>7.63</v>
+        <v>7.62</v>
       </c>
       <c r="F177" t="n">
-        <v>41159.298</v>
+        <v>329.3657</v>
       </c>
       <c r="G177" t="n">
-        <v>7.728666666666664</v>
+        <v>7.725666666666664</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -4984,7 +5517,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>7.76</v>
+        <v>7.63</v>
       </c>
       <c r="C178" t="n">
         <v>7.77</v>
@@ -4993,15 +5526,18 @@
         <v>7.77</v>
       </c>
       <c r="E178" t="n">
-        <v>7.76</v>
+        <v>7.63</v>
       </c>
       <c r="F178" t="n">
-        <v>7960</v>
+        <v>41159.298</v>
       </c>
       <c r="G178" t="n">
-        <v>7.726666666666663</v>
+        <v>7.728666666666664</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,24 +5546,27 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>7.64</v>
+        <v>7.76</v>
       </c>
       <c r="C179" t="n">
-        <v>7.64</v>
+        <v>7.77</v>
       </c>
       <c r="D179" t="n">
-        <v>7.64</v>
+        <v>7.77</v>
       </c>
       <c r="E179" t="n">
-        <v>7.64</v>
+        <v>7.76</v>
       </c>
       <c r="F179" t="n">
-        <v>24105.9973</v>
+        <v>7960</v>
       </c>
       <c r="G179" t="n">
-        <v>7.727166666666663</v>
+        <v>7.726666666666663</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5036,24 +5575,27 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>7.76</v>
+        <v>7.64</v>
       </c>
       <c r="C180" t="n">
-        <v>7.76</v>
+        <v>7.64</v>
       </c>
       <c r="D180" t="n">
-        <v>7.76</v>
+        <v>7.64</v>
       </c>
       <c r="E180" t="n">
-        <v>7.76</v>
+        <v>7.64</v>
       </c>
       <c r="F180" t="n">
-        <v>97533.4875</v>
+        <v>24105.9973</v>
       </c>
       <c r="G180" t="n">
-        <v>7.725333333333329</v>
+        <v>7.727166666666663</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5062,24 +5604,27 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>7.77</v>
+        <v>7.76</v>
       </c>
       <c r="C181" t="n">
-        <v>7.77</v>
+        <v>7.76</v>
       </c>
       <c r="D181" t="n">
-        <v>7.77</v>
+        <v>7.76</v>
       </c>
       <c r="E181" t="n">
-        <v>7.77</v>
+        <v>7.76</v>
       </c>
       <c r="F181" t="n">
-        <v>8564</v>
+        <v>97533.4875</v>
       </c>
       <c r="G181" t="n">
-        <v>7.725166666666663</v>
+        <v>7.725333333333329</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5100,12 +5645,15 @@
         <v>7.77</v>
       </c>
       <c r="F182" t="n">
-        <v>45780.2728</v>
+        <v>8564</v>
       </c>
       <c r="G182" t="n">
-        <v>7.725833333333329</v>
+        <v>7.725166666666663</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,24 +5662,27 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>7.76</v>
+        <v>7.77</v>
       </c>
       <c r="C183" t="n">
-        <v>7.76</v>
+        <v>7.77</v>
       </c>
       <c r="D183" t="n">
-        <v>7.76</v>
+        <v>7.77</v>
       </c>
       <c r="E183" t="n">
-        <v>7.76</v>
+        <v>7.77</v>
       </c>
       <c r="F183" t="n">
-        <v>69412</v>
+        <v>45780.2728</v>
       </c>
       <c r="G183" t="n">
-        <v>7.726833333333329</v>
+        <v>7.725833333333329</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5140,24 +5691,27 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>7.75</v>
+        <v>7.76</v>
       </c>
       <c r="C184" t="n">
-        <v>7.74</v>
+        <v>7.76</v>
       </c>
       <c r="D184" t="n">
-        <v>7.75</v>
+        <v>7.76</v>
       </c>
       <c r="E184" t="n">
-        <v>7.74</v>
+        <v>7.76</v>
       </c>
       <c r="F184" t="n">
-        <v>200</v>
+        <v>69412</v>
       </c>
       <c r="G184" t="n">
-        <v>7.726499999999996</v>
+        <v>7.726833333333329</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,25 +5720,28 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>7.74</v>
+        <v>7.75</v>
       </c>
       <c r="C185" t="n">
         <v>7.74</v>
       </c>
       <c r="D185" t="n">
-        <v>7.74</v>
+        <v>7.75</v>
       </c>
       <c r="E185" t="n">
         <v>7.74</v>
       </c>
       <c r="F185" t="n">
-        <v>11437.4677</v>
+        <v>200</v>
       </c>
       <c r="G185" t="n">
-        <v>7.726166666666662</v>
+        <v>7.726499999999996</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -5192,24 +5749,27 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>7.73</v>
+        <v>7.74</v>
       </c>
       <c r="C186" t="n">
-        <v>7.73</v>
+        <v>7.74</v>
       </c>
       <c r="D186" t="n">
-        <v>7.73</v>
+        <v>7.74</v>
       </c>
       <c r="E186" t="n">
-        <v>7.73</v>
+        <v>7.74</v>
       </c>
       <c r="F186" t="n">
-        <v>11</v>
+        <v>11437.4677</v>
       </c>
       <c r="G186" t="n">
-        <v>7.725666666666664</v>
+        <v>7.726166666666662</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5230,12 +5790,15 @@
         <v>7.73</v>
       </c>
       <c r="F187" t="n">
-        <v>2989</v>
+        <v>11</v>
       </c>
       <c r="G187" t="n">
-        <v>7.724999999999997</v>
+        <v>7.725666666666664</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5244,25 +5807,28 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>7.74</v>
+        <v>7.73</v>
       </c>
       <c r="C188" t="n">
-        <v>7.74</v>
+        <v>7.73</v>
       </c>
       <c r="D188" t="n">
-        <v>7.74</v>
+        <v>7.73</v>
       </c>
       <c r="E188" t="n">
-        <v>7.74</v>
+        <v>7.73</v>
       </c>
       <c r="F188" t="n">
-        <v>43.7984</v>
+        <v>2989</v>
       </c>
       <c r="G188" t="n">
-        <v>7.725166666666664</v>
+        <v>7.724999999999997</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -5270,25 +5836,28 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>7.73</v>
+        <v>7.74</v>
       </c>
       <c r="C189" t="n">
-        <v>7.73</v>
+        <v>7.74</v>
       </c>
       <c r="D189" t="n">
-        <v>7.73</v>
+        <v>7.74</v>
       </c>
       <c r="E189" t="n">
-        <v>7.73</v>
+        <v>7.74</v>
       </c>
       <c r="F189" t="n">
-        <v>100</v>
+        <v>43.7984</v>
       </c>
       <c r="G189" t="n">
         <v>7.725166666666664</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -5296,24 +5865,27 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>7.74</v>
+        <v>7.73</v>
       </c>
       <c r="C190" t="n">
-        <v>7.79</v>
+        <v>7.73</v>
       </c>
       <c r="D190" t="n">
-        <v>7.79</v>
+        <v>7.73</v>
       </c>
       <c r="E190" t="n">
-        <v>7.74</v>
+        <v>7.73</v>
       </c>
       <c r="F190" t="n">
-        <v>44640</v>
+        <v>100</v>
       </c>
       <c r="G190" t="n">
-        <v>7.723666666666664</v>
+        <v>7.725166666666664</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,7 +5894,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>7.78</v>
+        <v>7.74</v>
       </c>
       <c r="C191" t="n">
         <v>7.79</v>
@@ -5331,15 +5903,18 @@
         <v>7.79</v>
       </c>
       <c r="E191" t="n">
-        <v>7.78</v>
+        <v>7.74</v>
       </c>
       <c r="F191" t="n">
-        <v>8105.1604</v>
+        <v>44640</v>
       </c>
       <c r="G191" t="n">
-        <v>7.725166666666665</v>
+        <v>7.723666666666664</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5351,21 +5926,24 @@
         <v>7.78</v>
       </c>
       <c r="C192" t="n">
-        <v>7.78</v>
+        <v>7.79</v>
       </c>
       <c r="D192" t="n">
-        <v>7.78</v>
+        <v>7.79</v>
       </c>
       <c r="E192" t="n">
         <v>7.78</v>
       </c>
       <c r="F192" t="n">
-        <v>7340</v>
+        <v>8105.1604</v>
       </c>
       <c r="G192" t="n">
-        <v>7.727333333333331</v>
+        <v>7.725166666666665</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5374,24 +5952,27 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="C193" t="n">
-        <v>7.64</v>
+        <v>7.78</v>
       </c>
       <c r="D193" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="E193" t="n">
-        <v>7.64</v>
+        <v>7.78</v>
       </c>
       <c r="F193" t="n">
-        <v>10527.6019</v>
+        <v>7340</v>
       </c>
       <c r="G193" t="n">
-        <v>7.723499999999998</v>
+        <v>7.727333333333331</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5400,24 +5981,27 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>7.74</v>
+        <v>7.77</v>
       </c>
       <c r="C194" t="n">
-        <v>7.75</v>
+        <v>7.64</v>
       </c>
       <c r="D194" t="n">
-        <v>7.75</v>
+        <v>7.77</v>
       </c>
       <c r="E194" t="n">
-        <v>7.74</v>
+        <v>7.64</v>
       </c>
       <c r="F194" t="n">
-        <v>10490</v>
+        <v>10527.6019</v>
       </c>
       <c r="G194" t="n">
-        <v>7.721499999999997</v>
+        <v>7.723499999999998</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5426,24 +6010,27 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>7.76</v>
+        <v>7.74</v>
       </c>
       <c r="C195" t="n">
-        <v>7.78</v>
+        <v>7.75</v>
       </c>
       <c r="D195" t="n">
-        <v>7.78</v>
+        <v>7.75</v>
       </c>
       <c r="E195" t="n">
-        <v>7.76</v>
+        <v>7.74</v>
       </c>
       <c r="F195" t="n">
-        <v>33</v>
+        <v>10490</v>
       </c>
       <c r="G195" t="n">
-        <v>7.72033333333333</v>
+        <v>7.721499999999997</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5452,7 +6039,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>7.78</v>
+        <v>7.76</v>
       </c>
       <c r="C196" t="n">
         <v>7.78</v>
@@ -5461,15 +6048,18 @@
         <v>7.78</v>
       </c>
       <c r="E196" t="n">
-        <v>7.78</v>
+        <v>7.76</v>
       </c>
       <c r="F196" t="n">
-        <v>15970</v>
+        <v>33</v>
       </c>
       <c r="G196" t="n">
-        <v>7.719999999999996</v>
+        <v>7.72033333333333</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5478,24 +6068,27 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="C197" t="n">
-        <v>7.63</v>
+        <v>7.78</v>
       </c>
       <c r="D197" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="E197" t="n">
-        <v>7.63</v>
+        <v>7.78</v>
       </c>
       <c r="F197" t="n">
-        <v>100012.2186</v>
+        <v>15970</v>
       </c>
       <c r="G197" t="n">
-        <v>7.716499999999996</v>
+        <v>7.719999999999996</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5504,24 +6097,27 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>7.66</v>
+        <v>7.77</v>
       </c>
       <c r="C198" t="n">
-        <v>7.66</v>
+        <v>7.63</v>
       </c>
       <c r="D198" t="n">
-        <v>7.66</v>
+        <v>7.77</v>
       </c>
       <c r="E198" t="n">
-        <v>7.66</v>
+        <v>7.63</v>
       </c>
       <c r="F198" t="n">
-        <v>135.5177</v>
+        <v>100012.2186</v>
       </c>
       <c r="G198" t="n">
-        <v>7.714166666666663</v>
+        <v>7.716499999999996</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5530,24 +6126,27 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>7.75</v>
+        <v>7.66</v>
       </c>
       <c r="C199" t="n">
-        <v>7.67</v>
+        <v>7.66</v>
       </c>
       <c r="D199" t="n">
-        <v>7.75</v>
+        <v>7.66</v>
       </c>
       <c r="E199" t="n">
-        <v>7.67</v>
+        <v>7.66</v>
       </c>
       <c r="F199" t="n">
-        <v>8084.8975</v>
+        <v>135.5177</v>
       </c>
       <c r="G199" t="n">
-        <v>7.71433333333333</v>
+        <v>7.714166666666663</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5559,21 +6158,24 @@
         <v>7.75</v>
       </c>
       <c r="C200" t="n">
-        <v>7.75</v>
+        <v>7.67</v>
       </c>
       <c r="D200" t="n">
         <v>7.75</v>
       </c>
       <c r="E200" t="n">
-        <v>7.75</v>
+        <v>7.67</v>
       </c>
       <c r="F200" t="n">
-        <v>600</v>
+        <v>8084.8975</v>
       </c>
       <c r="G200" t="n">
-        <v>7.713333333333329</v>
+        <v>7.71433333333333</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5594,12 +6196,15 @@
         <v>7.75</v>
       </c>
       <c r="F201" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G201" t="n">
-        <v>7.712666666666663</v>
+        <v>7.713333333333329</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5620,12 +6225,15 @@
         <v>7.75</v>
       </c>
       <c r="F202" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G202" t="n">
-        <v>7.712166666666663</v>
+        <v>7.712666666666663</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5649,9 +6257,12 @@
         <v>800</v>
       </c>
       <c r="G203" t="n">
-        <v>7.71183333333333</v>
+        <v>7.712166666666663</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5663,21 +6274,24 @@
         <v>7.75</v>
       </c>
       <c r="C204" t="n">
-        <v>7.63</v>
+        <v>7.75</v>
       </c>
       <c r="D204" t="n">
         <v>7.75</v>
       </c>
       <c r="E204" t="n">
-        <v>7.63</v>
+        <v>7.75</v>
       </c>
       <c r="F204" t="n">
-        <v>242703.33</v>
+        <v>800</v>
       </c>
       <c r="G204" t="n">
-        <v>7.709166666666663</v>
+        <v>7.71183333333333</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5686,24 +6300,27 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="C205" t="n">
         <v>7.63</v>
       </c>
-      <c r="C205" t="n">
-        <v>7.74</v>
-      </c>
       <c r="D205" t="n">
-        <v>7.74</v>
+        <v>7.75</v>
       </c>
       <c r="E205" t="n">
-        <v>7.57</v>
+        <v>7.63</v>
       </c>
       <c r="F205" t="n">
-        <v>562054.925</v>
+        <v>242703.33</v>
       </c>
       <c r="G205" t="n">
-        <v>7.708499999999997</v>
+        <v>7.709166666666663</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5712,24 +6329,27 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>7.73</v>
+        <v>7.63</v>
       </c>
       <c r="C206" t="n">
-        <v>7.73</v>
+        <v>7.74</v>
       </c>
       <c r="D206" t="n">
-        <v>7.73</v>
+        <v>7.74</v>
       </c>
       <c r="E206" t="n">
-        <v>7.73</v>
+        <v>7.57</v>
       </c>
       <c r="F206" t="n">
-        <v>1580.3376</v>
+        <v>562054.925</v>
       </c>
       <c r="G206" t="n">
-        <v>7.708999999999998</v>
+        <v>7.708499999999997</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5750,12 +6370,15 @@
         <v>7.73</v>
       </c>
       <c r="F207" t="n">
-        <v>2754.0195</v>
+        <v>1580.3376</v>
       </c>
       <c r="G207" t="n">
-        <v>7.709499999999998</v>
+        <v>7.708999999999998</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5764,24 +6387,27 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>7.65</v>
+        <v>7.73</v>
       </c>
       <c r="C208" t="n">
-        <v>7.65</v>
+        <v>7.73</v>
       </c>
       <c r="D208" t="n">
-        <v>7.65</v>
+        <v>7.73</v>
       </c>
       <c r="E208" t="n">
-        <v>7.65</v>
+        <v>7.73</v>
       </c>
       <c r="F208" t="n">
-        <v>889.8156</v>
+        <v>2754.0195</v>
       </c>
       <c r="G208" t="n">
-        <v>7.706999999999997</v>
+        <v>7.709499999999998</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5790,24 +6416,27 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>7.63</v>
+        <v>7.65</v>
       </c>
       <c r="C209" t="n">
-        <v>7.63</v>
+        <v>7.65</v>
       </c>
       <c r="D209" t="n">
-        <v>7.63</v>
+        <v>7.65</v>
       </c>
       <c r="E209" t="n">
-        <v>7.63</v>
+        <v>7.65</v>
       </c>
       <c r="F209" t="n">
-        <v>602.9392</v>
+        <v>889.8156</v>
       </c>
       <c r="G209" t="n">
-        <v>7.704166666666664</v>
+        <v>7.706999999999997</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5816,24 +6445,27 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>7.65</v>
+        <v>7.63</v>
       </c>
       <c r="C210" t="n">
-        <v>7.65</v>
+        <v>7.63</v>
       </c>
       <c r="D210" t="n">
-        <v>7.65</v>
+        <v>7.63</v>
       </c>
       <c r="E210" t="n">
-        <v>7.65</v>
+        <v>7.63</v>
       </c>
       <c r="F210" t="n">
-        <v>10</v>
+        <v>602.9392</v>
       </c>
       <c r="G210" t="n">
-        <v>7.702166666666664</v>
+        <v>7.704166666666664</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5845,21 +6477,24 @@
         <v>7.65</v>
       </c>
       <c r="C211" t="n">
-        <v>7.66</v>
+        <v>7.65</v>
       </c>
       <c r="D211" t="n">
-        <v>7.66</v>
+        <v>7.65</v>
       </c>
       <c r="E211" t="n">
         <v>7.65</v>
       </c>
       <c r="F211" t="n">
-        <v>5555.3124</v>
+        <v>10</v>
       </c>
       <c r="G211" t="n">
-        <v>7.700333333333331</v>
+        <v>7.702166666666664</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5868,24 +6503,27 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>7.69</v>
+        <v>7.65</v>
       </c>
       <c r="C212" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="D212" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="E212" t="n">
-        <v>7.69</v>
+        <v>7.65</v>
       </c>
       <c r="F212" t="n">
-        <v>10</v>
+        <v>5555.3124</v>
       </c>
       <c r="G212" t="n">
-        <v>7.698833333333331</v>
+        <v>7.700333333333331</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5894,24 +6532,27 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>7.7</v>
+        <v>7.69</v>
       </c>
       <c r="C213" t="n">
-        <v>7.7</v>
+        <v>7.69</v>
       </c>
       <c r="D213" t="n">
-        <v>7.7</v>
+        <v>7.69</v>
       </c>
       <c r="E213" t="n">
-        <v>7.7</v>
+        <v>7.69</v>
       </c>
       <c r="F213" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G213" t="n">
-        <v>7.699833333333332</v>
+        <v>7.698833333333331</v>
       </c>
       <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5923,21 +6564,24 @@
         <v>7.7</v>
       </c>
       <c r="C214" t="n">
-        <v>7.64</v>
+        <v>7.7</v>
       </c>
       <c r="D214" t="n">
         <v>7.7</v>
       </c>
       <c r="E214" t="n">
-        <v>7.64</v>
+        <v>7.7</v>
       </c>
       <c r="F214" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G214" t="n">
         <v>7.699833333333332</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5949,21 +6593,24 @@
         <v>7.7</v>
       </c>
       <c r="C215" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="D215" t="n">
         <v>7.7</v>
       </c>
-      <c r="D215" t="n">
-        <v>7.71</v>
-      </c>
       <c r="E215" t="n">
-        <v>7.7</v>
+        <v>7.64</v>
       </c>
       <c r="F215" t="n">
-        <v>200020</v>
+        <v>100</v>
       </c>
       <c r="G215" t="n">
-        <v>7.700833333333332</v>
+        <v>7.699833333333332</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5972,24 +6619,27 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>7.71</v>
+        <v>7.7</v>
       </c>
       <c r="C216" t="n">
-        <v>7.71</v>
+        <v>7.7</v>
       </c>
       <c r="D216" t="n">
         <v>7.71</v>
       </c>
       <c r="E216" t="n">
-        <v>7.71</v>
+        <v>7.7</v>
       </c>
       <c r="F216" t="n">
-        <v>52565</v>
+        <v>200020</v>
       </c>
       <c r="G216" t="n">
-        <v>7.699833333333332</v>
+        <v>7.700833333333332</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6010,12 +6660,15 @@
         <v>7.71</v>
       </c>
       <c r="F217" t="n">
-        <v>160235</v>
+        <v>52565</v>
       </c>
       <c r="G217" t="n">
-        <v>7.698666666666665</v>
+        <v>7.699833333333332</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6024,24 +6677,27 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>7.72</v>
+        <v>7.71</v>
       </c>
       <c r="C218" t="n">
-        <v>7.78</v>
+        <v>7.71</v>
       </c>
       <c r="D218" t="n">
-        <v>7.78</v>
+        <v>7.71</v>
       </c>
       <c r="E218" t="n">
-        <v>7.72</v>
+        <v>7.71</v>
       </c>
       <c r="F218" t="n">
-        <v>124163.3818</v>
+        <v>160235</v>
       </c>
       <c r="G218" t="n">
-        <v>7.698499999999997</v>
+        <v>7.698666666666665</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6050,24 +6706,27 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="C219" t="n">
         <v>7.78</v>
       </c>
-      <c r="C219" t="n">
-        <v>7.79</v>
-      </c>
       <c r="D219" t="n">
-        <v>7.79</v>
+        <v>7.78</v>
       </c>
       <c r="E219" t="n">
-        <v>7.78</v>
+        <v>7.72</v>
       </c>
       <c r="F219" t="n">
-        <v>76301.3789</v>
+        <v>124163.3818</v>
       </c>
       <c r="G219" t="n">
-        <v>7.698666666666665</v>
+        <v>7.698499999999997</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6076,24 +6735,27 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="C220" t="n">
         <v>7.79</v>
       </c>
-      <c r="C220" t="n">
-        <v>7.84</v>
-      </c>
       <c r="D220" t="n">
-        <v>7.84</v>
+        <v>7.79</v>
       </c>
       <c r="E220" t="n">
-        <v>7.79</v>
+        <v>7.78</v>
       </c>
       <c r="F220" t="n">
-        <v>1069</v>
+        <v>76301.3789</v>
       </c>
       <c r="G220" t="n">
-        <v>7.699833333333332</v>
+        <v>7.698666666666665</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6102,24 +6764,27 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>7.78</v>
+        <v>7.79</v>
       </c>
       <c r="C221" t="n">
-        <v>7.82</v>
+        <v>7.84</v>
       </c>
       <c r="D221" t="n">
-        <v>7.82</v>
+        <v>7.84</v>
       </c>
       <c r="E221" t="n">
-        <v>7.78</v>
+        <v>7.79</v>
       </c>
       <c r="F221" t="n">
-        <v>161224</v>
+        <v>1069</v>
       </c>
       <c r="G221" t="n">
-        <v>7.701833333333331</v>
+        <v>7.699833333333332</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6134,18 +6799,21 @@
         <v>7.82</v>
       </c>
       <c r="D222" t="n">
-        <v>7.84</v>
+        <v>7.82</v>
       </c>
       <c r="E222" t="n">
-        <v>7.73</v>
+        <v>7.78</v>
       </c>
       <c r="F222" t="n">
-        <v>305344.3124</v>
+        <v>161224</v>
       </c>
       <c r="G222" t="n">
-        <v>7.703833333333332</v>
+        <v>7.701833333333331</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6154,24 +6822,27 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>7.73</v>
+        <v>7.78</v>
       </c>
       <c r="C223" t="n">
-        <v>7.79</v>
+        <v>7.82</v>
       </c>
       <c r="D223" t="n">
-        <v>7.79</v>
+        <v>7.84</v>
       </c>
       <c r="E223" t="n">
         <v>7.73</v>
       </c>
       <c r="F223" t="n">
-        <v>300000</v>
+        <v>305344.3124</v>
       </c>
       <c r="G223" t="n">
-        <v>7.705499999999999</v>
+        <v>7.703833333333332</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6195,9 +6866,12 @@
         <v>300000</v>
       </c>
       <c r="G224" t="n">
-        <v>7.706999999999999</v>
+        <v>7.705499999999999</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6206,24 +6880,27 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>7.82</v>
+        <v>7.73</v>
       </c>
       <c r="C225" t="n">
-        <v>7.88</v>
+        <v>7.79</v>
       </c>
       <c r="D225" t="n">
-        <v>7.88</v>
+        <v>7.79</v>
       </c>
       <c r="E225" t="n">
-        <v>7.82</v>
+        <v>7.73</v>
       </c>
       <c r="F225" t="n">
-        <v>361380.56</v>
+        <v>300000</v>
       </c>
       <c r="G225" t="n">
-        <v>7.710166666666666</v>
+        <v>7.706999999999999</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6241,15 +6918,18 @@
         <v>7.88</v>
       </c>
       <c r="E226" t="n">
-        <v>7.71</v>
+        <v>7.82</v>
       </c>
       <c r="F226" t="n">
-        <v>798197.2904000001</v>
+        <v>361380.56</v>
       </c>
       <c r="G226" t="n">
-        <v>7.714</v>
+        <v>7.710166666666666</v>
       </c>
       <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6258,24 +6938,27 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>7.89</v>
+        <v>7.82</v>
       </c>
       <c r="C227" t="n">
-        <v>7.93</v>
+        <v>7.88</v>
       </c>
       <c r="D227" t="n">
-        <v>7.95</v>
+        <v>7.88</v>
       </c>
       <c r="E227" t="n">
-        <v>7.79</v>
+        <v>7.71</v>
       </c>
       <c r="F227" t="n">
-        <v>333817</v>
+        <v>798197.2904000001</v>
       </c>
       <c r="G227" t="n">
-        <v>7.716666666666667</v>
+        <v>7.714</v>
       </c>
       <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6284,24 +6967,27 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>7.92</v>
+        <v>7.89</v>
       </c>
       <c r="C228" t="n">
-        <v>7.92</v>
+        <v>7.93</v>
       </c>
       <c r="D228" t="n">
-        <v>7.92</v>
+        <v>7.95</v>
       </c>
       <c r="E228" t="n">
-        <v>7.92</v>
+        <v>7.79</v>
       </c>
       <c r="F228" t="n">
-        <v>10</v>
+        <v>333817</v>
       </c>
       <c r="G228" t="n">
-        <v>7.721500000000001</v>
+        <v>7.716666666666667</v>
       </c>
       <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6313,21 +6999,24 @@
         <v>7.92</v>
       </c>
       <c r="C229" t="n">
-        <v>7.76</v>
+        <v>7.92</v>
       </c>
       <c r="D229" t="n">
         <v>7.92</v>
       </c>
       <c r="E229" t="n">
-        <v>7.76</v>
+        <v>7.92</v>
       </c>
       <c r="F229" t="n">
-        <v>160000</v>
+        <v>10</v>
       </c>
       <c r="G229" t="n">
-        <v>7.725333333333334</v>
+        <v>7.721500000000001</v>
       </c>
       <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6336,25 +7025,28 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>7.88</v>
+        <v>7.92</v>
       </c>
       <c r="C230" t="n">
-        <v>7.78</v>
+        <v>7.76</v>
       </c>
       <c r="D230" t="n">
-        <v>7.91</v>
+        <v>7.92</v>
       </c>
       <c r="E230" t="n">
-        <v>7.78</v>
+        <v>7.76</v>
       </c>
       <c r="F230" t="n">
-        <v>299736.56</v>
+        <v>160000</v>
       </c>
       <c r="G230" t="n">
-        <v>7.729333333333333</v>
+        <v>7.725333333333334</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -6365,7 +7057,7 @@
         <v>7.88</v>
       </c>
       <c r="C231" t="n">
-        <v>7.91</v>
+        <v>7.78</v>
       </c>
       <c r="D231" t="n">
         <v>7.91</v>
@@ -6374,12 +7066,15 @@
         <v>7.78</v>
       </c>
       <c r="F231" t="n">
-        <v>435194</v>
+        <v>299736.56</v>
       </c>
       <c r="G231" t="n">
-        <v>7.7355</v>
+        <v>7.729333333333333</v>
       </c>
       <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6388,7 +7083,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>7.79</v>
+        <v>7.88</v>
       </c>
       <c r="C232" t="n">
         <v>7.91</v>
@@ -6400,12 +7095,15 @@
         <v>7.78</v>
       </c>
       <c r="F232" t="n">
-        <v>277437</v>
+        <v>435194</v>
       </c>
       <c r="G232" t="n">
-        <v>7.741666666666666</v>
+        <v>7.7355</v>
       </c>
       <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6414,7 +7112,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>7.91</v>
+        <v>7.79</v>
       </c>
       <c r="C233" t="n">
         <v>7.91</v>
@@ -6426,12 +7124,15 @@
         <v>7.78</v>
       </c>
       <c r="F233" t="n">
-        <v>239993</v>
+        <v>277437</v>
       </c>
       <c r="G233" t="n">
-        <v>7.747666666666666</v>
+        <v>7.741666666666666</v>
       </c>
       <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6440,24 +7141,27 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>7.85</v>
+        <v>7.91</v>
       </c>
       <c r="C234" t="n">
-        <v>7.89</v>
+        <v>7.91</v>
       </c>
       <c r="D234" t="n">
         <v>7.91</v>
       </c>
       <c r="E234" t="n">
-        <v>7.79</v>
+        <v>7.78</v>
       </c>
       <c r="F234" t="n">
-        <v>211703</v>
+        <v>239993</v>
       </c>
       <c r="G234" t="n">
-        <v>7.752166666666667</v>
+        <v>7.747666666666666</v>
       </c>
       <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6469,21 +7173,24 @@
         <v>7.85</v>
       </c>
       <c r="C235" t="n">
-        <v>7.8</v>
+        <v>7.89</v>
       </c>
       <c r="D235" t="n">
-        <v>7.92</v>
+        <v>7.91</v>
       </c>
       <c r="E235" t="n">
-        <v>7.8</v>
+        <v>7.79</v>
       </c>
       <c r="F235" t="n">
-        <v>222402</v>
+        <v>211703</v>
       </c>
       <c r="G235" t="n">
-        <v>7.755166666666667</v>
+        <v>7.752166666666667</v>
       </c>
       <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6492,24 +7199,27 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>7.91</v>
+        <v>7.85</v>
       </c>
       <c r="C236" t="n">
-        <v>7.92</v>
+        <v>7.8</v>
       </c>
       <c r="D236" t="n">
         <v>7.92</v>
       </c>
       <c r="E236" t="n">
-        <v>7.81</v>
+        <v>7.8</v>
       </c>
       <c r="F236" t="n">
-        <v>107074.0653</v>
+        <v>222402</v>
       </c>
       <c r="G236" t="n">
-        <v>7.760166666666667</v>
+        <v>7.755166666666667</v>
       </c>
       <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6521,21 +7231,24 @@
         <v>7.91</v>
       </c>
       <c r="C237" t="n">
-        <v>7.91</v>
+        <v>7.92</v>
       </c>
       <c r="D237" t="n">
-        <v>7.91</v>
+        <v>7.92</v>
       </c>
       <c r="E237" t="n">
-        <v>7.91</v>
+        <v>7.81</v>
       </c>
       <c r="F237" t="n">
-        <v>134</v>
+        <v>107074.0653</v>
       </c>
       <c r="G237" t="n">
-        <v>7.762500000000001</v>
+        <v>7.760166666666667</v>
       </c>
       <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6544,24 +7257,27 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="C238" t="n">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="D238" t="n">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="E238" t="n">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="F238" t="n">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G238" t="n">
-        <v>7.764666666666668</v>
+        <v>7.762500000000001</v>
       </c>
       <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6570,24 +7286,27 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>7.89</v>
+        <v>7.9</v>
       </c>
       <c r="C239" t="n">
-        <v>7.87</v>
+        <v>7.9</v>
       </c>
       <c r="D239" t="n">
-        <v>7.89</v>
+        <v>7.9</v>
       </c>
       <c r="E239" t="n">
-        <v>7.87</v>
+        <v>7.9</v>
       </c>
       <c r="F239" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G239" t="n">
-        <v>7.768500000000001</v>
+        <v>7.764666666666668</v>
       </c>
       <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6596,24 +7315,27 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>7.87</v>
+        <v>7.89</v>
       </c>
       <c r="C240" t="n">
         <v>7.87</v>
       </c>
       <c r="D240" t="n">
-        <v>7.87</v>
+        <v>7.89</v>
       </c>
       <c r="E240" t="n">
         <v>7.87</v>
       </c>
       <c r="F240" t="n">
-        <v>17777.2645</v>
+        <v>30</v>
       </c>
       <c r="G240" t="n">
-        <v>7.770333333333335</v>
+        <v>7.768500000000001</v>
       </c>
       <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6622,24 +7344,27 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>7.86</v>
+        <v>7.87</v>
       </c>
       <c r="C241" t="n">
-        <v>7.86</v>
+        <v>7.87</v>
       </c>
       <c r="D241" t="n">
         <v>7.87</v>
       </c>
       <c r="E241" t="n">
-        <v>7.86</v>
+        <v>7.87</v>
       </c>
       <c r="F241" t="n">
-        <v>60998.6259</v>
+        <v>17777.2645</v>
       </c>
       <c r="G241" t="n">
-        <v>7.771833333333335</v>
+        <v>7.770333333333335</v>
       </c>
       <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6648,24 +7373,27 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>7.85</v>
+        <v>7.86</v>
       </c>
       <c r="C242" t="n">
-        <v>7.68</v>
+        <v>7.86</v>
       </c>
       <c r="D242" t="n">
-        <v>7.85</v>
+        <v>7.87</v>
       </c>
       <c r="E242" t="n">
-        <v>7.68</v>
+        <v>7.86</v>
       </c>
       <c r="F242" t="n">
-        <v>100012.2186</v>
+        <v>60998.6259</v>
       </c>
       <c r="G242" t="n">
-        <v>7.770333333333336</v>
+        <v>7.771833333333335</v>
       </c>
       <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6674,24 +7402,27 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>7.8</v>
+        <v>7.85</v>
       </c>
       <c r="C243" t="n">
-        <v>7.78</v>
+        <v>7.68</v>
       </c>
       <c r="D243" t="n">
-        <v>7.88</v>
+        <v>7.85</v>
       </c>
       <c r="E243" t="n">
-        <v>7.78</v>
+        <v>7.68</v>
       </c>
       <c r="F243" t="n">
-        <v>18998</v>
+        <v>100012.2186</v>
       </c>
       <c r="G243" t="n">
-        <v>7.770666666666669</v>
+        <v>7.770333333333336</v>
       </c>
       <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6700,24 +7431,27 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>7.78</v>
+        <v>7.8</v>
       </c>
       <c r="C244" t="n">
         <v>7.78</v>
       </c>
       <c r="D244" t="n">
-        <v>7.78</v>
+        <v>7.88</v>
       </c>
       <c r="E244" t="n">
         <v>7.78</v>
       </c>
       <c r="F244" t="n">
-        <v>7807</v>
+        <v>18998</v>
       </c>
       <c r="G244" t="n">
-        <v>7.771333333333335</v>
+        <v>7.770666666666669</v>
       </c>
       <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6729,21 +7463,24 @@
         <v>7.78</v>
       </c>
       <c r="C245" t="n">
-        <v>7.88</v>
+        <v>7.78</v>
       </c>
       <c r="D245" t="n">
-        <v>7.88</v>
+        <v>7.78</v>
       </c>
       <c r="E245" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="F245" t="n">
-        <v>14165.0525</v>
+        <v>7807</v>
       </c>
       <c r="G245" t="n">
-        <v>7.773666666666668</v>
+        <v>7.771333333333335</v>
       </c>
       <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6752,24 +7489,27 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>7.82</v>
+        <v>7.78</v>
       </c>
       <c r="C246" t="n">
-        <v>7.83</v>
+        <v>7.88</v>
       </c>
       <c r="D246" t="n">
-        <v>7.83</v>
+        <v>7.88</v>
       </c>
       <c r="E246" t="n">
-        <v>7.82</v>
+        <v>7.77</v>
       </c>
       <c r="F246" t="n">
-        <v>41568.9655</v>
+        <v>14165.0525</v>
       </c>
       <c r="G246" t="n">
-        <v>7.775333333333334</v>
+        <v>7.773666666666668</v>
       </c>
       <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6778,24 +7518,27 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>7.8</v>
+        <v>7.82</v>
       </c>
       <c r="C247" t="n">
-        <v>7.8</v>
+        <v>7.83</v>
       </c>
       <c r="D247" t="n">
-        <v>7.8</v>
+        <v>7.83</v>
       </c>
       <c r="E247" t="n">
-        <v>7.8</v>
+        <v>7.82</v>
       </c>
       <c r="F247" t="n">
-        <v>70309.4184</v>
+        <v>41568.9655</v>
       </c>
       <c r="G247" t="n">
-        <v>7.7765</v>
+        <v>7.775333333333334</v>
       </c>
       <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6816,12 +7559,15 @@
         <v>7.8</v>
       </c>
       <c r="F248" t="n">
-        <v>7060.641</v>
+        <v>70309.4184</v>
       </c>
       <c r="G248" t="n">
-        <v>7.777500000000001</v>
+        <v>7.7765</v>
       </c>
       <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6833,21 +7579,24 @@
         <v>7.8</v>
       </c>
       <c r="C249" t="n">
-        <v>7.85</v>
+        <v>7.8</v>
       </c>
       <c r="D249" t="n">
-        <v>7.85</v>
+        <v>7.8</v>
       </c>
       <c r="E249" t="n">
         <v>7.8</v>
       </c>
       <c r="F249" t="n">
-        <v>14319.1532</v>
+        <v>7060.641</v>
       </c>
       <c r="G249" t="n">
-        <v>7.779500000000001</v>
+        <v>7.777500000000001</v>
       </c>
       <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6856,7 +7605,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>7.85</v>
+        <v>7.8</v>
       </c>
       <c r="C250" t="n">
         <v>7.85</v>
@@ -6865,15 +7614,18 @@
         <v>7.85</v>
       </c>
       <c r="E250" t="n">
-        <v>7.85</v>
+        <v>7.8</v>
       </c>
       <c r="F250" t="n">
-        <v>89403.11199999999</v>
+        <v>14319.1532</v>
       </c>
       <c r="G250" t="n">
-        <v>7.780500000000001</v>
+        <v>7.779500000000001</v>
       </c>
       <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6882,24 +7634,27 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>7.87</v>
+        <v>7.85</v>
       </c>
       <c r="C251" t="n">
-        <v>7.97</v>
+        <v>7.85</v>
       </c>
       <c r="D251" t="n">
-        <v>7.97</v>
+        <v>7.85</v>
       </c>
       <c r="E251" t="n">
-        <v>7.87</v>
+        <v>7.85</v>
       </c>
       <c r="F251" t="n">
-        <v>263066.872</v>
+        <v>89403.11199999999</v>
       </c>
       <c r="G251" t="n">
-        <v>7.783500000000001</v>
+        <v>7.780500000000001</v>
       </c>
       <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6908,24 +7663,27 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="C252" t="n">
         <v>7.97</v>
       </c>
-      <c r="C252" t="n">
-        <v>8</v>
-      </c>
       <c r="D252" t="n">
-        <v>8</v>
+        <v>7.97</v>
       </c>
       <c r="E252" t="n">
-        <v>7.97</v>
+        <v>7.87</v>
       </c>
       <c r="F252" t="n">
-        <v>116330.0349</v>
+        <v>263066.872</v>
       </c>
       <c r="G252" t="n">
-        <v>7.787166666666668</v>
+        <v>7.783500000000001</v>
       </c>
       <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6934,7 +7692,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>8</v>
+        <v>7.97</v>
       </c>
       <c r="C253" t="n">
         <v>8</v>
@@ -6943,15 +7701,18 @@
         <v>8</v>
       </c>
       <c r="E253" t="n">
-        <v>8</v>
+        <v>7.97</v>
       </c>
       <c r="F253" t="n">
-        <v>31267.125</v>
+        <v>116330.0349</v>
       </c>
       <c r="G253" t="n">
-        <v>7.793166666666668</v>
+        <v>7.787166666666668</v>
       </c>
       <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6963,21 +7724,24 @@
         <v>8</v>
       </c>
       <c r="C254" t="n">
-        <v>8.07</v>
+        <v>8</v>
       </c>
       <c r="D254" t="n">
-        <v>8.07</v>
+        <v>8</v>
       </c>
       <c r="E254" t="n">
         <v>8</v>
       </c>
       <c r="F254" t="n">
-        <v>86739.0552</v>
+        <v>31267.125</v>
       </c>
       <c r="G254" t="n">
-        <v>7.798500000000002</v>
+        <v>7.793166666666668</v>
       </c>
       <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6986,24 +7750,27 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="C255" t="n">
-        <v>8.09</v>
+        <v>8.07</v>
       </c>
       <c r="D255" t="n">
-        <v>8.1</v>
+        <v>8.07</v>
       </c>
       <c r="E255" t="n">
-        <v>8.09</v>
+        <v>8</v>
       </c>
       <c r="F255" t="n">
-        <v>38013.4691</v>
+        <v>86739.0552</v>
       </c>
       <c r="G255" t="n">
-        <v>7.803666666666668</v>
+        <v>7.798500000000002</v>
       </c>
       <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7012,24 +7779,27 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>8.039999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="C256" t="n">
-        <v>8</v>
+        <v>8.09</v>
       </c>
       <c r="D256" t="n">
-        <v>8.039999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="E256" t="n">
-        <v>8</v>
+        <v>8.09</v>
       </c>
       <c r="F256" t="n">
-        <v>17461.2958</v>
+        <v>38013.4691</v>
       </c>
       <c r="G256" t="n">
-        <v>7.807333333333335</v>
+        <v>7.803666666666668</v>
       </c>
       <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7038,25 +7808,28 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="C257" t="n">
         <v>8</v>
       </c>
-      <c r="C257" t="n">
-        <v>8.09</v>
-      </c>
       <c r="D257" t="n">
-        <v>8.09</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="E257" t="n">
         <v>8</v>
       </c>
       <c r="F257" t="n">
-        <v>70065.1421</v>
+        <v>17461.2958</v>
       </c>
       <c r="G257" t="n">
-        <v>7.815000000000001</v>
+        <v>7.807333333333335</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -7064,24 +7837,27 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>8.039999999999999</v>
+        <v>8</v>
       </c>
       <c r="C258" t="n">
-        <v>8.039999999999999</v>
+        <v>8.09</v>
       </c>
       <c r="D258" t="n">
-        <v>8.039999999999999</v>
+        <v>8.09</v>
       </c>
       <c r="E258" t="n">
-        <v>8.039999999999999</v>
+        <v>8</v>
       </c>
       <c r="F258" t="n">
-        <v>20293.2835</v>
+        <v>70065.1421</v>
       </c>
       <c r="G258" t="n">
-        <v>7.821333333333334</v>
+        <v>7.815000000000001</v>
       </c>
       <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7090,24 +7866,27 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>7.9</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C259" t="n">
-        <v>7.9</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="D259" t="n">
-        <v>7.9</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="E259" t="n">
-        <v>7.9</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="F259" t="n">
-        <v>68696.8826</v>
+        <v>20293.2835</v>
       </c>
       <c r="G259" t="n">
-        <v>7.825166666666667</v>
+        <v>7.821333333333334</v>
       </c>
       <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7116,24 +7895,27 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>7.96</v>
+        <v>7.9</v>
       </c>
       <c r="C260" t="n">
-        <v>7.96</v>
+        <v>7.9</v>
       </c>
       <c r="D260" t="n">
-        <v>7.98</v>
+        <v>7.9</v>
       </c>
       <c r="E260" t="n">
-        <v>7.96</v>
+        <v>7.9</v>
       </c>
       <c r="F260" t="n">
-        <v>65988.2985</v>
+        <v>68696.8826</v>
       </c>
       <c r="G260" t="n">
-        <v>7.828666666666667</v>
+        <v>7.825166666666667</v>
       </c>
       <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7148,18 +7930,21 @@
         <v>7.96</v>
       </c>
       <c r="D261" t="n">
-        <v>7.96</v>
+        <v>7.98</v>
       </c>
       <c r="E261" t="n">
         <v>7.96</v>
       </c>
       <c r="F261" t="n">
-        <v>22561.0884</v>
+        <v>65988.2985</v>
       </c>
       <c r="G261" t="n">
-        <v>7.832166666666667</v>
+        <v>7.828666666666667</v>
       </c>
       <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7168,24 +7953,27 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>7.88</v>
+        <v>7.96</v>
       </c>
       <c r="C262" t="n">
-        <v>7.88</v>
+        <v>7.96</v>
       </c>
       <c r="D262" t="n">
-        <v>7.88</v>
+        <v>7.96</v>
       </c>
       <c r="E262" t="n">
-        <v>7.88</v>
+        <v>7.96</v>
       </c>
       <c r="F262" t="n">
-        <v>5974.8096</v>
+        <v>22561.0884</v>
       </c>
       <c r="G262" t="n">
-        <v>7.834333333333333</v>
+        <v>7.832166666666667</v>
       </c>
       <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7200,18 +7988,21 @@
         <v>7.88</v>
       </c>
       <c r="D263" t="n">
-        <v>7.89</v>
+        <v>7.88</v>
       </c>
       <c r="E263" t="n">
         <v>7.88</v>
       </c>
       <c r="F263" t="n">
-        <v>750441.8758</v>
+        <v>5974.8096</v>
       </c>
       <c r="G263" t="n">
-        <v>7.8365</v>
+        <v>7.834333333333333</v>
       </c>
       <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7220,24 +8011,27 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>7.9</v>
+        <v>7.88</v>
       </c>
       <c r="C264" t="n">
-        <v>7.99</v>
+        <v>7.88</v>
       </c>
       <c r="D264" t="n">
-        <v>8.029999999999999</v>
+        <v>7.89</v>
       </c>
       <c r="E264" t="n">
-        <v>7.89</v>
+        <v>7.88</v>
       </c>
       <c r="F264" t="n">
-        <v>79878.77860000001</v>
+        <v>750441.8758</v>
       </c>
       <c r="G264" t="n">
-        <v>7.8425</v>
+        <v>7.8365</v>
       </c>
       <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7246,24 +8040,27 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C265" t="n">
         <v>7.99</v>
       </c>
-      <c r="C265" t="n">
-        <v>8.09</v>
-      </c>
       <c r="D265" t="n">
-        <v>8.1</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="E265" t="n">
-        <v>7.99</v>
+        <v>7.89</v>
       </c>
       <c r="F265" t="n">
-        <v>275630.969</v>
+        <v>79878.77860000001</v>
       </c>
       <c r="G265" t="n">
-        <v>7.848333333333333</v>
+        <v>7.8425</v>
       </c>
       <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7272,24 +8069,27 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="C266" t="n">
         <v>8.09</v>
       </c>
-      <c r="C266" t="n">
-        <v>7.94</v>
-      </c>
       <c r="D266" t="n">
-        <v>8.09</v>
+        <v>8.1</v>
       </c>
       <c r="E266" t="n">
-        <v>7.94</v>
+        <v>7.99</v>
       </c>
       <c r="F266" t="n">
-        <v>54939.443</v>
+        <v>275630.969</v>
       </c>
       <c r="G266" t="n">
-        <v>7.851833333333333</v>
+        <v>7.848333333333333</v>
       </c>
       <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7298,24 +8098,27 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>8.06</v>
+        <v>8.09</v>
       </c>
       <c r="C267" t="n">
-        <v>8.07</v>
+        <v>7.94</v>
       </c>
       <c r="D267" t="n">
-        <v>8.07</v>
+        <v>8.09</v>
       </c>
       <c r="E267" t="n">
-        <v>8.050000000000001</v>
+        <v>7.94</v>
       </c>
       <c r="F267" t="n">
-        <v>155785.0068</v>
+        <v>54939.443</v>
       </c>
       <c r="G267" t="n">
-        <v>7.857499999999999</v>
+        <v>7.851833333333333</v>
       </c>
       <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7324,24 +8127,27 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>8.050000000000001</v>
+        <v>8.06</v>
       </c>
       <c r="C268" t="n">
-        <v>7.87</v>
+        <v>8.07</v>
       </c>
       <c r="D268" t="n">
         <v>8.07</v>
       </c>
       <c r="E268" t="n">
-        <v>7.87</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F268" t="n">
-        <v>62.0001</v>
+        <v>155785.0068</v>
       </c>
       <c r="G268" t="n">
-        <v>7.861166666666666</v>
+        <v>7.857499999999999</v>
       </c>
       <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7350,24 +8156,27 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>7.89</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="C269" t="n">
-        <v>8.08</v>
+        <v>7.87</v>
       </c>
       <c r="D269" t="n">
-        <v>8.08</v>
+        <v>8.07</v>
       </c>
       <c r="E269" t="n">
-        <v>7.89</v>
+        <v>7.87</v>
       </c>
       <c r="F269" t="n">
-        <v>28294.1396</v>
+        <v>62.0001</v>
       </c>
       <c r="G269" t="n">
-        <v>7.868666666666666</v>
+        <v>7.861166666666666</v>
       </c>
       <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7376,7 +8185,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>8.08</v>
+        <v>7.89</v>
       </c>
       <c r="C270" t="n">
         <v>8.08</v>
@@ -7385,15 +8194,18 @@
         <v>8.08</v>
       </c>
       <c r="E270" t="n">
-        <v>8.08</v>
+        <v>7.89</v>
       </c>
       <c r="F270" t="n">
-        <v>21207.4566</v>
+        <v>28294.1396</v>
       </c>
       <c r="G270" t="n">
-        <v>7.875833333333333</v>
+        <v>7.868666666666666</v>
       </c>
       <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7402,24 +8214,27 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>8.07</v>
+        <v>8.08</v>
       </c>
       <c r="C271" t="n">
-        <v>8.07</v>
+        <v>8.08</v>
       </c>
       <c r="D271" t="n">
-        <v>8.07</v>
+        <v>8.08</v>
       </c>
       <c r="E271" t="n">
-        <v>8.07</v>
+        <v>8.08</v>
       </c>
       <c r="F271" t="n">
-        <v>15925.3097</v>
+        <v>21207.4566</v>
       </c>
       <c r="G271" t="n">
-        <v>7.882666666666665</v>
+        <v>7.875833333333333</v>
       </c>
       <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7431,21 +8246,24 @@
         <v>8.07</v>
       </c>
       <c r="C272" t="n">
-        <v>8.08</v>
+        <v>8.07</v>
       </c>
       <c r="D272" t="n">
-        <v>8.08</v>
+        <v>8.07</v>
       </c>
       <c r="E272" t="n">
         <v>8.07</v>
       </c>
       <c r="F272" t="n">
-        <v>261637.8712</v>
+        <v>15925.3097</v>
       </c>
       <c r="G272" t="n">
-        <v>7.889166666666665</v>
+        <v>7.882666666666665</v>
       </c>
       <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7454,24 +8272,27 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>8.06</v>
+        <v>8.07</v>
       </c>
       <c r="C273" t="n">
-        <v>7.9</v>
+        <v>8.08</v>
       </c>
       <c r="D273" t="n">
-        <v>8.06</v>
+        <v>8.08</v>
       </c>
       <c r="E273" t="n">
-        <v>7.9</v>
+        <v>8.07</v>
       </c>
       <c r="F273" t="n">
-        <v>20</v>
+        <v>261637.8712</v>
       </c>
       <c r="G273" t="n">
-        <v>7.892499999999998</v>
+        <v>7.889166666666665</v>
       </c>
       <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7483,21 +8304,24 @@
         <v>8.06</v>
       </c>
       <c r="C274" t="n">
-        <v>8.06</v>
+        <v>7.9</v>
       </c>
       <c r="D274" t="n">
         <v>8.06</v>
       </c>
       <c r="E274" t="n">
-        <v>8.06</v>
+        <v>7.9</v>
       </c>
       <c r="F274" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G274" t="n">
-        <v>7.899499999999999</v>
+        <v>7.892499999999998</v>
       </c>
       <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7509,21 +8333,24 @@
         <v>8.06</v>
       </c>
       <c r="C275" t="n">
-        <v>7.9</v>
+        <v>8.06</v>
       </c>
       <c r="D275" t="n">
         <v>8.06</v>
       </c>
       <c r="E275" t="n">
-        <v>7.9</v>
+        <v>8.06</v>
       </c>
       <c r="F275" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G275" t="n">
-        <v>7.902833333333332</v>
+        <v>7.899499999999999</v>
       </c>
       <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7532,24 +8359,27 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>7.9</v>
+        <v>8.06</v>
       </c>
       <c r="C276" t="n">
         <v>7.9</v>
       </c>
       <c r="D276" t="n">
-        <v>7.9</v>
+        <v>8.06</v>
       </c>
       <c r="E276" t="n">
         <v>7.9</v>
       </c>
       <c r="F276" t="n">
-        <v>12629.3439</v>
+        <v>20</v>
       </c>
       <c r="G276" t="n">
-        <v>7.905999999999998</v>
+        <v>7.902833333333332</v>
       </c>
       <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7558,24 +8388,27 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>8.050000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="C277" t="n">
-        <v>8.050000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="D277" t="n">
-        <v>8.050000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="E277" t="n">
-        <v>8.050000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="F277" t="n">
-        <v>10420.9316</v>
+        <v>12629.3439</v>
       </c>
       <c r="G277" t="n">
-        <v>7.911666666666665</v>
+        <v>7.905999999999998</v>
       </c>
       <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7584,7 +8417,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>7.87</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="C278" t="n">
         <v>8.050000000000001</v>
@@ -7593,15 +8426,18 @@
         <v>8.050000000000001</v>
       </c>
       <c r="E278" t="n">
-        <v>7.87</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F278" t="n">
-        <v>10745.9499</v>
+        <v>10420.9316</v>
       </c>
       <c r="G278" t="n">
-        <v>7.916166666666666</v>
+        <v>7.911666666666665</v>
       </c>
       <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7610,7 +8446,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>8.050000000000001</v>
+        <v>7.87</v>
       </c>
       <c r="C279" t="n">
         <v>8.050000000000001</v>
@@ -7619,15 +8455,18 @@
         <v>8.050000000000001</v>
       </c>
       <c r="E279" t="n">
-        <v>8.050000000000001</v>
+        <v>7.87</v>
       </c>
       <c r="F279" t="n">
-        <v>4454.944</v>
+        <v>10745.9499</v>
       </c>
       <c r="G279" t="n">
-        <v>7.9205</v>
+        <v>7.916166666666666</v>
       </c>
       <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7636,24 +8475,27 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>7.88</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="C280" t="n">
-        <v>7.87</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="D280" t="n">
-        <v>7.88</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="E280" t="n">
-        <v>7.87</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F280" t="n">
-        <v>42816.0901</v>
+        <v>4454.944</v>
       </c>
       <c r="G280" t="n">
-        <v>7.921</v>
+        <v>7.9205</v>
       </c>
       <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7662,24 +8504,27 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>7.91</v>
+        <v>7.88</v>
       </c>
       <c r="C281" t="n">
-        <v>7.91</v>
+        <v>7.87</v>
       </c>
       <c r="D281" t="n">
-        <v>7.91</v>
+        <v>7.88</v>
       </c>
       <c r="E281" t="n">
-        <v>7.91</v>
+        <v>7.87</v>
       </c>
       <c r="F281" t="n">
-        <v>59803.6869</v>
+        <v>42816.0901</v>
       </c>
       <c r="G281" t="n">
-        <v>7.9225</v>
+        <v>7.921</v>
       </c>
       <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7691,21 +8536,24 @@
         <v>7.91</v>
       </c>
       <c r="C282" t="n">
-        <v>7.88</v>
+        <v>7.91</v>
       </c>
       <c r="D282" t="n">
         <v>7.91</v>
       </c>
       <c r="E282" t="n">
-        <v>7.88</v>
+        <v>7.91</v>
       </c>
       <c r="F282" t="n">
-        <v>20242.5503</v>
+        <v>59803.6869</v>
       </c>
       <c r="G282" t="n">
-        <v>7.923500000000001</v>
+        <v>7.9225</v>
       </c>
       <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7714,24 +8562,27 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>7.88</v>
+        <v>7.91</v>
       </c>
       <c r="C283" t="n">
         <v>7.88</v>
       </c>
       <c r="D283" t="n">
-        <v>7.88</v>
+        <v>7.91</v>
       </c>
       <c r="E283" t="n">
         <v>7.88</v>
       </c>
       <c r="F283" t="n">
-        <v>10197.8371</v>
+        <v>20242.5503</v>
       </c>
       <c r="G283" t="n">
-        <v>7.925</v>
+        <v>7.923500000000001</v>
       </c>
       <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7752,12 +8603,15 @@
         <v>7.88</v>
       </c>
       <c r="F284" t="n">
-        <v>1468.9672</v>
+        <v>10197.8371</v>
       </c>
       <c r="G284" t="n">
-        <v>7.9265</v>
+        <v>7.925</v>
       </c>
       <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7766,24 +8620,27 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>7.99</v>
+        <v>7.88</v>
       </c>
       <c r="C285" t="n">
-        <v>7.99</v>
+        <v>7.88</v>
       </c>
       <c r="D285" t="n">
-        <v>7.99</v>
+        <v>7.88</v>
       </c>
       <c r="E285" t="n">
-        <v>7.99</v>
+        <v>7.88</v>
       </c>
       <c r="F285" t="n">
-        <v>9393.3477</v>
+        <v>1468.9672</v>
       </c>
       <c r="G285" t="n">
-        <v>7.928333333333333</v>
+        <v>7.9265</v>
       </c>
       <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7804,12 +8661,15 @@
         <v>7.99</v>
       </c>
       <c r="F286" t="n">
-        <v>974.1426</v>
+        <v>9393.3477</v>
       </c>
       <c r="G286" t="n">
-        <v>7.930166666666667</v>
+        <v>7.928333333333333</v>
       </c>
       <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7818,24 +8678,27 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>7.98</v>
+        <v>7.99</v>
       </c>
       <c r="C287" t="n">
-        <v>7.98</v>
+        <v>7.99</v>
       </c>
       <c r="D287" t="n">
-        <v>7.98</v>
+        <v>7.99</v>
       </c>
       <c r="E287" t="n">
-        <v>7.98</v>
+        <v>7.99</v>
       </c>
       <c r="F287" t="n">
-        <v>2852.9259</v>
+        <v>974.1426</v>
       </c>
       <c r="G287" t="n">
-        <v>7.931</v>
+        <v>7.930166666666667</v>
       </c>
       <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7856,12 +8719,15 @@
         <v>7.98</v>
       </c>
       <c r="F288" t="n">
-        <v>786.817</v>
+        <v>2852.9259</v>
       </c>
       <c r="G288" t="n">
-        <v>7.932</v>
+        <v>7.931</v>
       </c>
       <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7882,12 +8748,15 @@
         <v>7.98</v>
       </c>
       <c r="F289" t="n">
-        <v>40861.2907</v>
+        <v>786.817</v>
       </c>
       <c r="G289" t="n">
-        <v>7.935666666666667</v>
+        <v>7.932</v>
       </c>
       <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7896,7 +8765,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>7.97</v>
+        <v>7.98</v>
       </c>
       <c r="C290" t="n">
         <v>7.98</v>
@@ -7905,15 +8774,18 @@
         <v>7.98</v>
       </c>
       <c r="E290" t="n">
-        <v>7.97</v>
+        <v>7.98</v>
       </c>
       <c r="F290" t="n">
-        <v>2605.9088</v>
+        <v>40861.2907</v>
       </c>
       <c r="G290" t="n">
-        <v>7.939000000000002</v>
+        <v>7.935666666666667</v>
       </c>
       <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7922,7 +8794,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>7.98</v>
+        <v>7.97</v>
       </c>
       <c r="C291" t="n">
         <v>7.98</v>
@@ -7931,15 +8803,18 @@
         <v>7.98</v>
       </c>
       <c r="E291" t="n">
-        <v>7.98</v>
+        <v>7.97</v>
       </c>
       <c r="F291" t="n">
-        <v>2543.8596</v>
+        <v>2605.9088</v>
       </c>
       <c r="G291" t="n">
-        <v>7.940166666666668</v>
+        <v>7.939000000000002</v>
       </c>
       <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7960,12 +8835,15 @@
         <v>7.98</v>
       </c>
       <c r="F292" t="n">
-        <v>3391.2906</v>
+        <v>2543.8596</v>
       </c>
       <c r="G292" t="n">
-        <v>7.941333333333334</v>
+        <v>7.940166666666668</v>
       </c>
       <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7986,12 +8864,15 @@
         <v>7.98</v>
       </c>
       <c r="F293" t="n">
-        <v>279.1353</v>
+        <v>3391.2906</v>
       </c>
       <c r="G293" t="n">
-        <v>7.942500000000001</v>
+        <v>7.941333333333334</v>
       </c>
       <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8012,12 +8893,15 @@
         <v>7.98</v>
       </c>
       <c r="F294" t="n">
-        <v>1481.3283</v>
+        <v>279.1353</v>
       </c>
       <c r="G294" t="n">
-        <v>7.944000000000002</v>
+        <v>7.942500000000001</v>
       </c>
       <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8038,12 +8922,15 @@
         <v>7.98</v>
       </c>
       <c r="F295" t="n">
-        <v>1713.1641</v>
+        <v>1481.3283</v>
       </c>
       <c r="G295" t="n">
-        <v>7.947000000000002</v>
+        <v>7.944000000000002</v>
       </c>
       <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8064,12 +8951,15 @@
         <v>7.98</v>
       </c>
       <c r="F296" t="n">
-        <v>790.6891000000001</v>
+        <v>1713.1641</v>
       </c>
       <c r="G296" t="n">
-        <v>7.948000000000002</v>
+        <v>7.947000000000002</v>
       </c>
       <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8090,12 +8980,15 @@
         <v>7.98</v>
       </c>
       <c r="F297" t="n">
-        <v>749.9373000000001</v>
+        <v>790.6891000000001</v>
       </c>
       <c r="G297" t="n">
-        <v>7.949166666666668</v>
+        <v>7.948000000000002</v>
       </c>
       <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8104,24 +8997,27 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>7.86</v>
+        <v>7.98</v>
       </c>
       <c r="C298" t="n">
-        <v>7.85</v>
+        <v>7.98</v>
       </c>
       <c r="D298" t="n">
-        <v>7.86</v>
+        <v>7.98</v>
       </c>
       <c r="E298" t="n">
-        <v>7.85</v>
+        <v>7.98</v>
       </c>
       <c r="F298" t="n">
-        <v>9102.0537</v>
+        <v>749.9373000000001</v>
       </c>
       <c r="G298" t="n">
-        <v>7.948333333333336</v>
+        <v>7.949166666666668</v>
       </c>
       <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8130,24 +9026,27 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="C299" t="n">
         <v>7.85</v>
       </c>
-      <c r="C299" t="n">
-        <v>7.8</v>
-      </c>
       <c r="D299" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="E299" t="n">
         <v>7.85</v>
       </c>
-      <c r="E299" t="n">
-        <v>7.8</v>
-      </c>
       <c r="F299" t="n">
-        <v>2551.2541</v>
+        <v>9102.0537</v>
       </c>
       <c r="G299" t="n">
-        <v>7.94716666666667</v>
+        <v>7.948333333333336</v>
       </c>
       <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8156,24 +9055,27 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>7.76</v>
+        <v>7.85</v>
       </c>
       <c r="C300" t="n">
-        <v>7.77</v>
+        <v>7.8</v>
       </c>
       <c r="D300" t="n">
-        <v>7.77</v>
+        <v>7.85</v>
       </c>
       <c r="E300" t="n">
-        <v>7.76</v>
+        <v>7.8</v>
       </c>
       <c r="F300" t="n">
-        <v>136357.8041</v>
+        <v>2551.2541</v>
       </c>
       <c r="G300" t="n">
-        <v>7.945500000000002</v>
+        <v>7.94716666666667</v>
       </c>
       <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8182,24 +9084,27 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>7.78</v>
+        <v>7.76</v>
       </c>
       <c r="C301" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="D301" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="E301" t="n">
-        <v>7.78</v>
+        <v>7.76</v>
       </c>
       <c r="F301" t="n">
-        <v>3289.1416</v>
+        <v>136357.8041</v>
       </c>
       <c r="G301" t="n">
-        <v>7.944166666666669</v>
+        <v>7.945500000000002</v>
       </c>
       <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8208,24 +9113,27 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="C302" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="D302" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="E302" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="F302" t="n">
-        <v>5307.7436</v>
+        <v>3289.1416</v>
       </c>
       <c r="G302" t="n">
-        <v>7.945666666666668</v>
+        <v>7.944166666666669</v>
       </c>
       <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8234,24 +9142,27 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="C303" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="D303" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="E303" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="F303" t="n">
-        <v>2488.9328</v>
+        <v>5307.7436</v>
       </c>
       <c r="G303" t="n">
         <v>7.945666666666668</v>
       </c>
       <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8260,24 +9171,27 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>7.82</v>
+        <v>7.78</v>
       </c>
       <c r="C304" t="n">
-        <v>7.82</v>
+        <v>7.78</v>
       </c>
       <c r="D304" t="n">
-        <v>7.82</v>
+        <v>7.78</v>
       </c>
       <c r="E304" t="n">
-        <v>7.82</v>
+        <v>7.78</v>
       </c>
       <c r="F304" t="n">
-        <v>1012.2762</v>
+        <v>2488.9328</v>
       </c>
       <c r="G304" t="n">
-        <v>7.946333333333334</v>
+        <v>7.945666666666668</v>
       </c>
       <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8286,24 +9200,27 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>7.75</v>
+        <v>7.82</v>
       </c>
       <c r="C305" t="n">
-        <v>7.73</v>
+        <v>7.82</v>
       </c>
       <c r="D305" t="n">
-        <v>7.75</v>
+        <v>7.82</v>
       </c>
       <c r="E305" t="n">
-        <v>7.73</v>
+        <v>7.82</v>
       </c>
       <c r="F305" t="n">
-        <v>95300.7549</v>
+        <v>1012.2762</v>
       </c>
       <c r="G305" t="n">
-        <v>7.943833333333335</v>
+        <v>7.946333333333334</v>
       </c>
       <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8312,24 +9229,27 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>7.83</v>
+        <v>7.75</v>
       </c>
       <c r="C306" t="n">
-        <v>7.83</v>
+        <v>7.73</v>
       </c>
       <c r="D306" t="n">
-        <v>7.83</v>
+        <v>7.75</v>
       </c>
       <c r="E306" t="n">
-        <v>7.83</v>
+        <v>7.73</v>
       </c>
       <c r="F306" t="n">
-        <v>88798.89539999999</v>
+        <v>95300.7549</v>
       </c>
       <c r="G306" t="n">
         <v>7.943833333333335</v>
       </c>
       <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8338,24 +9258,27 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>7.82</v>
+        <v>7.83</v>
       </c>
       <c r="C307" t="n">
-        <v>7.82</v>
+        <v>7.83</v>
       </c>
       <c r="D307" t="n">
-        <v>7.82</v>
+        <v>7.83</v>
       </c>
       <c r="E307" t="n">
-        <v>7.82</v>
+        <v>7.83</v>
       </c>
       <c r="F307" t="n">
-        <v>4052.6122</v>
+        <v>88798.89539999999</v>
       </c>
       <c r="G307" t="n">
-        <v>7.944166666666669</v>
+        <v>7.943833333333335</v>
       </c>
       <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8364,24 +9287,27 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>7.83</v>
+        <v>7.82</v>
       </c>
       <c r="C308" t="n">
-        <v>7.83</v>
+        <v>7.82</v>
       </c>
       <c r="D308" t="n">
-        <v>7.83</v>
+        <v>7.82</v>
       </c>
       <c r="E308" t="n">
-        <v>7.83</v>
+        <v>7.82</v>
       </c>
       <c r="F308" t="n">
-        <v>14020577.6476</v>
+        <v>4052.6122</v>
       </c>
       <c r="G308" t="n">
-        <v>7.944666666666667</v>
+        <v>7.944166666666669</v>
       </c>
       <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8402,12 +9328,15 @@
         <v>7.83</v>
       </c>
       <c r="F309" t="n">
-        <v>24512798.0064</v>
+        <v>14020577.6476</v>
       </c>
       <c r="G309" t="n">
-        <v>7.944333333333334</v>
+        <v>7.944666666666667</v>
       </c>
       <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8428,12 +9357,15 @@
         <v>7.83</v>
       </c>
       <c r="F310" t="n">
-        <v>24141391.976</v>
+        <v>24512798.0064</v>
       </c>
       <c r="G310" t="n">
-        <v>7.944</v>
+        <v>7.944333333333334</v>
       </c>
       <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8454,532 +9386,15 @@
         <v>7.83</v>
       </c>
       <c r="F311" t="n">
-        <v>21077292.2252</v>
+        <v>24141391.976</v>
       </c>
       <c r="G311" t="n">
-        <v>7.941666666666666</v>
+        <v>7.944</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="C312" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="D312" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="E312" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="F312" t="n">
-        <v>117321.5809</v>
-      </c>
-      <c r="G312" t="n">
-        <v>7.941166666666666</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="C313" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="D313" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="E313" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="F313" t="n">
-        <v>20</v>
-      </c>
-      <c r="G313" t="n">
-        <v>7.937666666666667</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="C314" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="D314" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="E314" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="F314" t="n">
-        <v>31536.6687</v>
-      </c>
-      <c r="G314" t="n">
-        <v>7.936000000000001</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="C315" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="D315" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="E315" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="F315" t="n">
-        <v>32875.9096</v>
-      </c>
-      <c r="G315" t="n">
-        <v>7.934000000000001</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="C316" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="D316" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="E316" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="F316" t="n">
-        <v>117321.5809</v>
-      </c>
-      <c r="G316" t="n">
-        <v>7.932000000000001</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="C317" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="D317" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="E317" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="F317" t="n">
-        <v>2515.723270440252</v>
-      </c>
-      <c r="G317" t="n">
-        <v>7.929666666666668</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="C318" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="D318" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="E318" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="F318" t="n">
-        <v>29625.2516</v>
-      </c>
-      <c r="G318" t="n">
-        <v>7.927333333333334</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="C319" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="D319" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="E319" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="F319" t="n">
-        <v>5724.3427</v>
-      </c>
-      <c r="G319" t="n">
-        <v>7.927500000000001</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="C320" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="D320" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="E320" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="F320" t="n">
-        <v>142768.5458</v>
-      </c>
-      <c r="G320" t="n">
-        <v>7.926500000000002</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="C321" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="D321" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="E321" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="F321" t="n">
-        <v>11409.3552</v>
-      </c>
-      <c r="G321" t="n">
-        <v>7.925666666666669</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="C322" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="D322" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="E322" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="F322" t="n">
-        <v>189318.8775</v>
-      </c>
-      <c r="G322" t="n">
-        <v>7.925000000000002</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="C323" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="D323" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="E323" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="F323" t="n">
-        <v>65920.1201</v>
-      </c>
-      <c r="G323" t="n">
-        <v>7.924333333333335</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="C324" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="D324" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="E324" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="F324" t="n">
-        <v>4190.1572</v>
-      </c>
-      <c r="G324" t="n">
-        <v>7.921833333333335</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="C325" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="D325" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="E325" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="F325" t="n">
-        <v>7393.9784</v>
-      </c>
-      <c r="G325" t="n">
-        <v>7.917666666666667</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="C326" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="D326" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="E326" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="F326" t="n">
-        <v>20578.6106</v>
-      </c>
-      <c r="G326" t="n">
-        <v>7.913833333333334</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="C327" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="D327" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="E327" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="F327" t="n">
-        <v>2728.5995</v>
-      </c>
-      <c r="G327" t="n">
-        <v>7.908000000000001</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="C328" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="D328" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="E328" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="F328" t="n">
-        <v>2728.5995</v>
-      </c>
-      <c r="G328" t="n">
-        <v>7.905333333333334</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="C329" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="D329" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="E329" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="F329" t="n">
-        <v>171899.8623</v>
-      </c>
-      <c r="G329" t="n">
-        <v>7.898833333333334</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="C330" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="D330" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="E330" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="F330" t="n">
-        <v>73334.2856</v>
-      </c>
-      <c r="G330" t="n">
-        <v>7.892500000000001</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="C331" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="D331" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="E331" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="F331" t="n">
-        <v>35898.2272</v>
-      </c>
-      <c r="G331" t="n">
-        <v>7.886166666666668</v>
-      </c>
-      <c r="H331" t="n">
+      <c r="I311" t="n">
         <v>0</v>
       </c>
     </row>
